--- a/output/LUAD_statistics_all.xlsx
+++ b/output/LUAD_statistics_all.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="152">
   <si>
     <t>capri_bic.SELECTS</t>
   </si>
@@ -57,117 +57,117 @@
     <t>5</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>29</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>37</t>
   </si>
   <si>
     <t>38</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>39</t>
   </si>
   <si>
@@ -213,99 +213,102 @@
     <t>53</t>
   </si>
   <si>
+    <t>54</t>
+  </si>
+  <si>
     <t>Mutation EGFR</t>
   </si>
   <si>
+    <t>Mutation KRAS</t>
+  </si>
+  <si>
+    <t>Amplification CDK4</t>
+  </si>
+  <si>
+    <t>Mutation TP53</t>
+  </si>
+  <si>
+    <t>Pattern OR_KRAS</t>
+  </si>
+  <si>
+    <t>Mutation ATM</t>
+  </si>
+  <si>
+    <t>Pattern OR_CDKN2A</t>
+  </si>
+  <si>
     <t>Pattern OR_CDK4_TP53</t>
   </si>
   <si>
+    <t>Pattern OR_EGFR_SMARCA4</t>
+  </si>
+  <si>
+    <t>Mutation NF1</t>
+  </si>
+  <si>
     <t>Mutation SMARCA4</t>
   </si>
   <si>
-    <t>Mutation TP53</t>
-  </si>
-  <si>
-    <t>Mutation KRAS</t>
-  </si>
-  <si>
-    <t>Pattern OR_CDKN2A</t>
-  </si>
-  <si>
-    <t>Amplification CDK4</t>
-  </si>
-  <si>
-    <t>Pattern OR_KRAS</t>
+    <t>Mutation KEAP1</t>
+  </si>
+  <si>
+    <t>Mutation ARID1B</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Amplification EGFR</t>
+  </si>
+  <si>
+    <t>Amplification KRAS</t>
+  </si>
+  <si>
+    <t>Amplification MDM2</t>
+  </si>
+  <si>
+    <t>Mutation RB1</t>
+  </si>
+  <si>
+    <t>Mutation STK11</t>
+  </si>
+  <si>
+    <t>Amplification CCND1</t>
+  </si>
+  <si>
+    <t>Deletion CDKN2A</t>
+  </si>
+  <si>
+    <t>Mutation NFE2L2</t>
+  </si>
+  <si>
+    <t>Mutation RET</t>
+  </si>
+  <si>
+    <t>Amplification MET</t>
+  </si>
+  <si>
+    <t>Mutation CDKN2A</t>
+  </si>
+  <si>
+    <t>Mutation ROS1</t>
+  </si>
+  <si>
+    <t>Amplification CCNE1</t>
+  </si>
+  <si>
+    <t>Amplification RIT1</t>
+  </si>
+  <si>
+    <t>Mutation ALK</t>
+  </si>
+  <si>
+    <t>Mutation ARID1A</t>
   </si>
   <si>
     <t>Mutation ARID2</t>
   </si>
   <si>
-    <t>Mutation ATM</t>
-  </si>
-  <si>
-    <t>Mutation KEAP1</t>
-  </si>
-  <si>
-    <t>Mutation ROS1</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_SMARCA4</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Amplification EGFR</t>
-  </si>
-  <si>
-    <t>Mutation NFE2L2</t>
-  </si>
-  <si>
-    <t>Mutation RB1</t>
-  </si>
-  <si>
-    <t>Amplification KRAS</t>
-  </si>
-  <si>
-    <t>Amplification CCND1</t>
-  </si>
-  <si>
-    <t>Amplification MDM2</t>
-  </si>
-  <si>
-    <t>Pattern AND_PIK3CA_RB1</t>
-  </si>
-  <si>
-    <t>Mutation CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation STK11</t>
-  </si>
-  <si>
-    <t>Amplification MET</t>
-  </si>
-  <si>
-    <t>Mutation ARID1B</t>
-  </si>
-  <si>
-    <t>Mutation RET</t>
-  </si>
-  <si>
-    <t>Deletion CDKN2A</t>
-  </si>
-  <si>
-    <t>Amplification CCNE1</t>
-  </si>
-  <si>
-    <t>Amplification RIT1</t>
-  </si>
-  <si>
-    <t>Mutation ALK</t>
-  </si>
-  <si>
-    <t>Mutation ARID1A</t>
-  </si>
-  <si>
     <t>Mutation BRAF</t>
   </si>
   <si>
@@ -318,9 +321,6 @@
     <t>Mutation MTOR</t>
   </si>
   <si>
-    <t>Mutation NF1</t>
-  </si>
-  <si>
     <t>Mutation PIK3CA</t>
   </si>
   <si>
@@ -348,12 +348,18 @@
     <t>Pattern OR_EGFR_STK11</t>
   </si>
   <si>
+    <t>Pattern OR_KRAS_EGFR_NF1_BRAF_MET</t>
+  </si>
+  <si>
     <t>Pattern OR_KRAS_TP53</t>
   </si>
   <si>
     <t>Pattern OR_MDM2_TP53</t>
   </si>
   <si>
+    <t>Pattern OR_STK11_EGFR_ERBB2</t>
+  </si>
+  <si>
     <t>Pattern OR_STK11_TP53</t>
   </si>
   <si>
@@ -402,22 +408,37 @@
     <t>capri_aic.SD.POSTERR</t>
   </si>
   <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
     <t>60</t>
   </si>
   <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
+    <t>61</t>
   </si>
   <si>
     <t>64</t>
@@ -426,28 +447,10 @@
     <t>65</t>
   </si>
   <si>
+    <t>67</t>
+  </si>
+  <si>
     <t>68</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
   </si>
   <si>
     <t>69</t>
@@ -563,10 +566,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" t="n">
         <v>65.0</v>
@@ -575,13 +578,13 @@
         <v>28.0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.92671123772335E-5</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G2" t="n">
-        <v>4.05690370510693E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H2" t="n">
-        <v>3.91497351987973E-9</v>
+        <v>3.24651120035433E-13</v>
       </c>
       <c r="I2" t="n">
         <v>80.0</v>
@@ -599,7 +602,7 @@
         <v>0.0591966173361522</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="3">
@@ -607,25 +610,25 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>265.0</v>
+        <v>141.0</v>
       </c>
       <c r="E3" t="n">
-        <v>28.0</v>
+        <v>34.0</v>
       </c>
       <c r="F3" t="n">
-        <v>3.94511214512808E-5</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G3" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H3" t="n">
-        <v>4.62083488900288E-6</v>
+        <v>8.88220599278587E-4</v>
       </c>
       <c r="I3" t="n">
         <v>80.0</v>
@@ -634,13 +637,13 @@
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -651,43 +654,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D4" t="n">
-        <v>48.0</v>
+        <v>29.0</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0</v>
+        <v>26.0</v>
       </c>
       <c r="F4" t="n">
-        <v>3.83568771824305E-5</v>
+        <v>0.0177894166197971</v>
       </c>
       <c r="G4" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00180163808571658</v>
+        <v>3.80945122355267E-7</v>
       </c>
       <c r="I4" t="n">
-        <v>70.0</v>
+        <v>80.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.0551797040169133</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0</v>
+        <v>6.68557644855895E-4</v>
       </c>
     </row>
     <row r="5">
@@ -695,10 +698,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" t="n">
         <v>250.0</v>
@@ -707,16 +710,16 @@
         <v>31.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.01937482104294E-5</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G5" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H5" t="n">
-        <v>7.08630770929278E-6</v>
+        <v>1.07101678627571E-5</v>
       </c>
       <c r="I5" t="n">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
@@ -739,43 +742,43 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D6" t="n">
-        <v>250.0</v>
+        <v>158.0</v>
       </c>
       <c r="E6" t="n">
-        <v>26.0</v>
+        <v>84.0</v>
       </c>
       <c r="F6" t="n">
-        <v>3.98211137138711E-5</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G6" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00470560456401602</v>
+        <v>1.11208450607907E-5</v>
       </c>
       <c r="I6" t="n">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.17780126849894293</v>
       </c>
       <c r="L6" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>6.685576448558929E-4</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N6" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -783,40 +786,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D7" t="n">
-        <v>141.0</v>
+        <v>46.0</v>
       </c>
       <c r="E7" t="n">
-        <v>34.0</v>
+        <v>19.0</v>
       </c>
       <c r="F7" t="n">
-        <v>4.01937482104294E-5</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G7" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00103577594631515</v>
+        <v>0.00699258708471991</v>
       </c>
       <c r="I7" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -827,10 +830,10 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D8" t="n">
         <v>103.0</v>
@@ -839,16 +842,16 @@
         <v>19.0</v>
       </c>
       <c r="F8" t="n">
-        <v>3.98211137138711E-5</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G8" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H8" t="n">
-        <v>4.20631113667766E-4</v>
+        <v>8.46735787535546E-6</v>
       </c>
       <c r="I8" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
@@ -871,40 +874,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D9" t="n">
-        <v>29.0</v>
+        <v>265.0</v>
       </c>
       <c r="E9" t="n">
-        <v>26.0</v>
+        <v>34.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00799712708568516</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G9" t="n">
-        <v>4.03810600803007E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H9" t="n">
-        <v>1.22060965342091E-9</v>
+        <v>8.27584277446678E-5</v>
       </c>
       <c r="I9" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -915,40 +918,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D10" t="n">
-        <v>158.0</v>
+        <v>120.0</v>
       </c>
       <c r="E10" t="n">
-        <v>46.0</v>
+        <v>82.0</v>
       </c>
       <c r="F10" t="n">
-        <v>3.96357880596532E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G10" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00152282025112865</v>
+        <v>4.12608987825272E-4</v>
       </c>
       <c r="I10" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09725158562367865</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0972515856236787</v>
+        <v>0.173361522198731</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -959,40 +962,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D11" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.0</v>
+        <v>25.0</v>
       </c>
       <c r="F11" t="n">
-        <v>3.64111620331533E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G11" t="n">
-        <v>3.14719354078108E-5</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00389687175260687</v>
+        <v>0.0103051123549064</v>
       </c>
       <c r="I11" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="J11" t="n">
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.004228329809725159</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L11" t="n">
         <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00422832980972516</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
@@ -1003,25 +1006,25 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D12" t="n">
-        <v>250.0</v>
+        <v>48.0</v>
       </c>
       <c r="E12" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="F12" t="n">
-        <v>3.98211137138711E-5</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G12" t="n">
-        <v>9.92299753909661E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00470560456401602</v>
+        <v>0.00161509241969472</v>
       </c>
       <c r="I12" t="n">
         <v>40.0</v>
@@ -1030,16 +1033,16 @@
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N12" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -1047,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" t="n">
-        <v>158.0</v>
+        <v>265.0</v>
       </c>
       <c r="E13" t="n">
-        <v>84.0</v>
+        <v>23.0</v>
       </c>
       <c r="F13" t="n">
-        <v>3.96357880596532E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G13" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H13" t="n">
-        <v>8.72881864945047E-5</v>
+        <v>9.13202144083936E-5</v>
       </c>
       <c r="I13" t="n">
         <v>40.0</v>
@@ -1074,13 +1077,13 @@
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1799154334038055</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006017018803703045</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M13" t="n">
-        <v>0.177589852008457</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N13" t="n">
         <v>0.0</v>
@@ -1091,40 +1094,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D14" t="n">
-        <v>46.0</v>
+        <v>93.0</v>
       </c>
       <c r="E14" t="n">
-        <v>19.0</v>
+        <v>84.0</v>
       </c>
       <c r="F14" t="n">
-        <v>3.98211137138711E-5</v>
+        <v>0.200982679178368</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00625718664081437</v>
+        <v>3.59155834889592E-4</v>
       </c>
       <c r="I14" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.040169133192389</v>
+        <v>0.17780126849894293</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0</v>
+        <v>6.685576448558929E-4</v>
       </c>
       <c r="M14" t="n">
-        <v>0.040169133192389</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -1135,43 +1138,43 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D15" t="n">
         <v>265.0</v>
       </c>
       <c r="E15" t="n">
-        <v>34.0</v>
+        <v>28.0</v>
       </c>
       <c r="F15" t="n">
-        <v>4.03810600803007E-5</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G15" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H15" t="n">
-        <v>5.41340370300314E-5</v>
+        <v>1.77721953788421E-6</v>
       </c>
       <c r="I15" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L15" t="n">
         <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="16">
@@ -1179,40 +1182,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D16" t="n">
-        <v>93.0</v>
+        <v>103.0</v>
       </c>
       <c r="E16" t="n">
-        <v>84.0</v>
+        <v>15.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00260366851725413</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G16" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H16" t="n">
-        <v>2.66335709542836E-4</v>
+        <v>0.00167276266869532</v>
       </c>
       <c r="I16" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="J16" t="n">
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1799154334038055</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L16" t="n">
-        <v>0.006017018803703045</v>
+        <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.177589852008457</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -1226,22 +1229,22 @@
         <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D17" t="n">
-        <v>103.0</v>
+        <v>158.0</v>
       </c>
       <c r="E17" t="n">
-        <v>15.0</v>
+        <v>46.0</v>
       </c>
       <c r="F17" t="n">
-        <v>3.96357880596532E-5</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G17" t="n">
-        <v>9.05702480294115E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00920956456293582</v>
+        <v>0.00131454955057744</v>
       </c>
       <c r="I17" t="n">
         <v>20.0</v>
@@ -1250,13 +1253,13 @@
         <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -1267,25 +1270,25 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" t="n">
-        <v>26.0</v>
+        <v>250.0</v>
       </c>
       <c r="E18" t="n">
         <v>25.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.152526861987935</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G18" t="n">
-        <v>5.32401707922167E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H18" t="n">
-        <v>4.94689940303263E-4</v>
+        <v>0.00148405904181779</v>
       </c>
       <c r="I18" t="n">
         <v>20.0</v>
@@ -1311,43 +1314,43 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D19" t="n">
-        <v>265.0</v>
+        <v>25.0</v>
       </c>
       <c r="E19" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="F19" t="n">
-        <v>4.00070999263567E-5</v>
+        <v>0.414406187123225</v>
       </c>
       <c r="G19" t="n">
-        <v>4.05690370510693E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H19" t="n">
-        <v>2.49022843057501E-4</v>
+        <v>0.00877923124276454</v>
       </c>
       <c r="I19" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J19" t="n">
         <v>100.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N19" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -1355,43 +1358,43 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3.94511214512808E-5</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.4175710770138E-6</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.00112197360386636</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100.0</v>
+        <v>93</v>
+      </c>
+      <c r="D20" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E20" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F20" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G20" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H20" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I20" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J20" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1733615221987315</v>
+        <v>0.05708245243128964</v>
       </c>
       <c r="L20" t="n">
         <v>0.0</v>
       </c>
-      <c r="M20" t="n">
-        <v>0.173361522198731</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.0</v>
+      <c r="M20" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N20" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="21">
@@ -1399,10 +1402,10 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -1426,10 +1429,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05708245243128964</v>
+        <v>0.0613107822410148</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0</v>
+        <v>3.271025955591198E-18</v>
       </c>
       <c r="M21" t="e">
         <v>#NUM!</v>
@@ -1443,10 +1446,10 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D22" t="e">
         <v>#NUM!</v>
@@ -1470,10 +1473,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0613107822410148</v>
+        <v>0.12473572938689217</v>
       </c>
       <c r="L22" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M22" t="e">
         <v>#NUM!</v>
@@ -1487,10 +1490,10 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" t="e">
         <v>#NUM!</v>
@@ -1514,7 +1517,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K23" t="n">
-        <v>0.12473572938689217</v>
+        <v>0.07822410147991543</v>
       </c>
       <c r="L23" t="n">
         <v>0.0</v>
@@ -1531,10 +1534,10 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D24" t="e">
         <v>#NUM!</v>
@@ -1558,7 +1561,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K24" t="n">
-        <v>0.07822410147991543</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
@@ -1575,10 +1578,10 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D25" t="e">
         <v>#NUM!</v>
@@ -1602,10 +1605,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K25" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.06765327695560254</v>
       </c>
       <c r="L25" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M25" t="e">
         <v>#NUM!</v>
@@ -1619,10 +1622,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D26" t="e">
         <v>#NUM!</v>
@@ -1646,7 +1649,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K26" t="n">
-        <v>0.06765327695560254</v>
+        <v>0.08668076109936575</v>
       </c>
       <c r="L26" t="n">
         <v>0.0</v>
@@ -1663,10 +1666,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -1690,7 +1693,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K27" t="n">
-        <v>0.08668076109936575</v>
+        <v>0.13742071881606766</v>
       </c>
       <c r="L27" t="n">
         <v>0.0</v>
@@ -1707,10 +1710,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="D28" t="e">
         <v>#NUM!</v>
@@ -1734,7 +1737,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K28" t="n">
-        <v>0.13742071881606766</v>
+        <v>0.042283298097251586</v>
       </c>
       <c r="L28" t="n">
         <v>0.0</v>
@@ -1751,10 +1754,10 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D29" t="e">
         <v>#NUM!</v>
@@ -1778,7 +1781,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K29" t="n">
-        <v>0.042283298097251586</v>
+        <v>0.19661733615221988</v>
       </c>
       <c r="L29" t="n">
         <v>0.0</v>
@@ -1795,10 +1798,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -1822,10 +1825,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K30" t="n">
-        <v>0.19661733615221988</v>
+        <v>0.29809725158562367</v>
       </c>
       <c r="L30" t="n">
-        <v>9.25185853854297E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M30" t="e">
         <v>#NUM!</v>
@@ -1839,10 +1842,10 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D31" t="e">
         <v>#NUM!</v>
@@ -1866,7 +1869,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K31" t="n">
-        <v>0.29809725158562367</v>
+        <v>0.04439746300211417</v>
       </c>
       <c r="L31" t="n">
         <v>0.0</v>
@@ -1883,10 +1886,10 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" t="e">
         <v>#NUM!</v>
@@ -1910,7 +1913,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K32" t="n">
-        <v>0.04439746300211417</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L32" t="n">
         <v>0.0</v>
@@ -1927,10 +1930,10 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D33" t="e">
         <v>#NUM!</v>
@@ -1954,10 +1957,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K33" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.13530655391120508</v>
       </c>
       <c r="L33" t="n">
-        <v>6.542051911182396E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M33" t="e">
         <v>#NUM!</v>
@@ -1971,10 +1974,10 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" t="e">
         <v>#NUM!</v>
@@ -1998,7 +2001,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K34" t="n">
-        <v>0.13530655391120508</v>
+        <v>0.05708245243128964</v>
       </c>
       <c r="L34" t="n">
         <v>0.0</v>
@@ -2015,10 +2018,10 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" t="e">
         <v>#NUM!</v>
@@ -2042,10 +2045,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K35" t="n">
-        <v>0.05708245243128964</v>
+        <v>0.07822410147991543</v>
       </c>
       <c r="L35" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M35" t="e">
         <v>#NUM!</v>
@@ -2059,10 +2062,10 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D36" t="e">
         <v>#NUM!</v>
@@ -2086,7 +2089,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K36" t="n">
-        <v>0.07822410147991543</v>
+        <v>0.07399577167019028</v>
       </c>
       <c r="L36" t="n">
         <v>0.0</v>
@@ -2103,10 +2106,10 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D37" t="e">
         <v>#NUM!</v>
@@ -2130,7 +2133,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K37" t="n">
-        <v>0.07399577167019028</v>
+        <v>0.1014799154334038</v>
       </c>
       <c r="L37" t="n">
         <v>0.0</v>
@@ -2147,10 +2150,10 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D38" t="e">
         <v>#NUM!</v>
@@ -2174,7 +2177,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1014799154334038</v>
+        <v>0.4714587737843552</v>
       </c>
       <c r="L38" t="n">
         <v>0.0</v>
@@ -2191,10 +2194,10 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D39" t="e">
         <v>#NUM!</v>
@@ -2218,7 +2221,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K39" t="n">
-        <v>0.4714587737843552</v>
+        <v>0.35517970401691334</v>
       </c>
       <c r="L39" t="n">
         <v>0.0</v>
@@ -2235,10 +2238,10 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D40" t="e">
         <v>#NUM!</v>
@@ -2262,7 +2265,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K40" t="n">
-        <v>0.35517970401691334</v>
+        <v>0.3192389006342495</v>
       </c>
       <c r="L40" t="n">
         <v>0.0</v>
@@ -2279,10 +2282,10 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="D41" t="e">
         <v>#NUM!</v>
@@ -2306,7 +2309,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K41" t="n">
-        <v>0.3192389006342495</v>
+        <v>0.4397463002114165</v>
       </c>
       <c r="L41" t="n">
         <v>0.0</v>
@@ -2323,10 +2326,10 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D42" t="e">
         <v>#NUM!</v>
@@ -2350,7 +2353,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4397463002114165</v>
+        <v>0.21775898520084566</v>
       </c>
       <c r="L42" t="n">
         <v>0.0</v>
@@ -2367,10 +2370,10 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="D43" t="e">
         <v>#NUM!</v>
@@ -2394,7 +2397,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K43" t="n">
-        <v>0.21775898520084566</v>
+        <v>0.1649048625792812</v>
       </c>
       <c r="L43" t="n">
         <v>0.0</v>
@@ -2411,10 +2414,10 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D44" t="e">
         <v>#NUM!</v>
@@ -2438,10 +2441,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K44" t="n">
-        <v>0.1649048625792812</v>
+        <v>0.486892177589852</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0</v>
+        <v>0.0063071602072627235</v>
       </c>
       <c r="M44" t="e">
         <v>#NUM!</v>
@@ -2455,10 +2458,10 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D45" t="e">
         <v>#NUM!</v>
@@ -2482,10 +2485,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K45" t="n">
-        <v>0.4887949260042283</v>
+        <v>0.4143763213530655</v>
       </c>
       <c r="L45" t="n">
-        <v>0.01099907710507494</v>
+        <v>0.0</v>
       </c>
       <c r="M45" t="e">
         <v>#NUM!</v>
@@ -2499,10 +2502,10 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="D46" t="e">
         <v>#NUM!</v>
@@ -2526,7 +2529,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4143763213530655</v>
+        <v>0.2536997885835095</v>
       </c>
       <c r="L46" t="n">
         <v>0.0</v>
@@ -2543,10 +2546,10 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="D47" t="e">
         <v>#NUM!</v>
@@ -2570,7 +2573,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K47" t="n">
-        <v>0.2536997885835095</v>
+        <v>0.33403805496828753</v>
       </c>
       <c r="L47" t="n">
         <v>0.0</v>
@@ -2587,10 +2590,10 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="D48" t="e">
         <v>#NUM!</v>
@@ -2631,10 +2634,10 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="D49" t="e">
         <v>#NUM!</v>
@@ -2658,7 +2661,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K49" t="n">
-        <v>0.33403805496828753</v>
+        <v>0.3192389006342495</v>
       </c>
       <c r="L49" t="n">
         <v>0.0</v>
@@ -2675,10 +2678,10 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D50" t="e">
         <v>#NUM!</v>
@@ -2719,10 +2722,10 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D51" t="e">
         <v>#NUM!</v>
@@ -2763,10 +2766,10 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D52" t="e">
         <v>#NUM!</v>
@@ -2790,7 +2793,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K52" t="n">
-        <v>0.35517970401691334</v>
+        <v>0.3678646934460888</v>
       </c>
       <c r="L52" t="n">
         <v>0.0</v>
@@ -2807,10 +2810,10 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D53" t="e">
         <v>#NUM!</v>
@@ -2834,7 +2837,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K53" t="n">
-        <v>0.4693446088794926</v>
+        <v>0.35517970401691334</v>
       </c>
       <c r="L53" t="n">
         <v>0.0</v>
@@ -2851,10 +2854,10 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D54" t="e">
         <v>#NUM!</v>
@@ -2878,15 +2881,59 @@
         <v>#NUM!</v>
       </c>
       <c r="K54" t="n">
+        <v>0.4693446088794926</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M54" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N54" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K55" t="n">
         <v>0.07610993657505286</v>
       </c>
-      <c r="L54" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M54" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N54" t="e">
+      <c r="L55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N55" t="e">
         <v>#NUM!</v>
       </c>
     </row>
@@ -2906,54 +2953,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" t="n">
         <v>65.0</v>
@@ -2962,13 +3009,13 @@
         <v>28.0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.92671123772335E-5</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G2" t="n">
-        <v>4.05690370510693E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H2" t="n">
-        <v>3.91497351987973E-9</v>
+        <v>3.24651120035433E-13</v>
       </c>
       <c r="I2" t="n">
         <v>80.0</v>
@@ -2983,36 +3030,36 @@
         <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.123044397463002</v>
+        <v>0.125792811839323</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00562012742420772</v>
+        <v>0.00655429007672244</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>265.0</v>
+        <v>141.0</v>
       </c>
       <c r="E3" t="n">
-        <v>28.0</v>
+        <v>34.0</v>
       </c>
       <c r="F3" t="n">
-        <v>3.94511214512808E-5</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G3" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H3" t="n">
-        <v>4.62083488900288E-6</v>
+        <v>8.88220599278587E-4</v>
       </c>
       <c r="I3" t="n">
         <v>80.0</v>
@@ -3021,13 +3068,13 @@
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -3035,43 +3082,43 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D4" t="n">
-        <v>48.0</v>
+        <v>29.0</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0</v>
+        <v>26.0</v>
       </c>
       <c r="F4" t="n">
-        <v>3.83568771824305E-5</v>
+        <v>0.0177894166197971</v>
       </c>
       <c r="G4" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00180163808571658</v>
+        <v>3.80945122355267E-7</v>
       </c>
       <c r="I4" t="n">
-        <v>70.0</v>
+        <v>80.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -3079,13 +3126,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" t="n">
         <v>250.0</v>
@@ -3094,16 +3141,16 @@
         <v>31.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.01937482104294E-5</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G5" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H5" t="n">
-        <v>7.08630770929278E-6</v>
+        <v>1.07101678627571E-5</v>
       </c>
       <c r="I5" t="n">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
@@ -3123,43 +3170,43 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D6" t="n">
-        <v>250.0</v>
+        <v>158.0</v>
       </c>
       <c r="E6" t="n">
-        <v>26.0</v>
+        <v>84.0</v>
       </c>
       <c r="F6" t="n">
-        <v>3.98211137138711E-5</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G6" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00470560456401602</v>
+        <v>1.11208450607907E-5</v>
       </c>
       <c r="I6" t="n">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.17780126849894293</v>
       </c>
       <c r="L6" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>6.685576448558929E-4</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -3167,57 +3214,57 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D7" t="n">
-        <v>141.0</v>
+        <v>46.0</v>
       </c>
       <c r="E7" t="n">
-        <v>34.0</v>
+        <v>19.0</v>
       </c>
       <c r="F7" t="n">
-        <v>4.01937482104294E-5</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G7" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00103577594631515</v>
+        <v>0.00699258708471991</v>
       </c>
       <c r="I7" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0720930232558139</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N7" t="n">
-        <v>6.68557644855897E-4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D8" t="n">
         <v>103.0</v>
@@ -3226,16 +3273,16 @@
         <v>19.0</v>
       </c>
       <c r="F8" t="n">
-        <v>3.98211137138711E-5</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G8" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H8" t="n">
-        <v>4.20631113667766E-4</v>
+        <v>8.46735787535546E-6</v>
       </c>
       <c r="I8" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
@@ -3255,87 +3302,87 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D9" t="n">
-        <v>29.0</v>
+        <v>265.0</v>
       </c>
       <c r="E9" t="n">
-        <v>26.0</v>
+        <v>34.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00799712708568516</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G9" t="n">
-        <v>4.03810600803007E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H9" t="n">
-        <v>1.22060965342091E-9</v>
+        <v>8.27584277446678E-5</v>
       </c>
       <c r="I9" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0553911205073996</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00133711528971179</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D10" t="n">
-        <v>158.0</v>
+        <v>120.0</v>
       </c>
       <c r="E10" t="n">
-        <v>46.0</v>
+        <v>82.0</v>
       </c>
       <c r="F10" t="n">
-        <v>3.96357880596532E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G10" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00152282025112865</v>
+        <v>4.12608987825272E-4</v>
       </c>
       <c r="I10" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09725158562367865</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0972515856236787</v>
+        <v>0.173361522198731</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -3343,43 +3390,43 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D11" t="n">
-        <v>32.0</v>
+        <v>64.0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.0</v>
+        <v>25.0</v>
       </c>
       <c r="F11" t="n">
-        <v>3.64111620331533E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G11" t="n">
-        <v>3.14719354078108E-5</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00389687175260687</v>
+        <v>0.0103051123549064</v>
       </c>
       <c r="I11" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="J11" t="n">
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.004228329809725159</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L11" t="n">
         <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00422832980972516</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
@@ -3387,28 +3434,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
         <v>88</v>
       </c>
       <c r="D12" t="n">
-        <v>158.0</v>
+        <v>48.0</v>
       </c>
       <c r="E12" t="n">
-        <v>84.0</v>
+        <v>15.0</v>
       </c>
       <c r="F12" t="n">
-        <v>3.96357880596532E-5</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G12" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H12" t="n">
-        <v>8.72881864945047E-5</v>
+        <v>0.00161509241969472</v>
       </c>
       <c r="I12" t="n">
         <v>40.0</v>
@@ -3417,13 +3464,13 @@
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1799154334038055</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006017018803703045</v>
+        <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.177589852008457</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -3431,43 +3478,43 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D13" t="n">
-        <v>46.0</v>
+        <v>265.0</v>
       </c>
       <c r="E13" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="F13" t="n">
-        <v>3.98211137138711E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G13" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00625718664081437</v>
+        <v>9.13202144083936E-5</v>
       </c>
       <c r="I13" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="J13" t="n">
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.040169133192389</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M13" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N13" t="n">
         <v>0.0</v>
@@ -3475,43 +3522,43 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D14" t="n">
-        <v>265.0</v>
+        <v>93.0</v>
       </c>
       <c r="E14" t="n">
-        <v>34.0</v>
+        <v>84.0</v>
       </c>
       <c r="F14" t="n">
-        <v>4.03810600803007E-5</v>
+        <v>0.200982679178368</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H14" t="n">
-        <v>5.41340370300314E-5</v>
+        <v>3.59155834889592E-4</v>
       </c>
       <c r="I14" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.17780126849894293</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0</v>
+        <v>6.685576448558929E-4</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -3519,57 +3566,57 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D15" t="n">
-        <v>93.0</v>
+        <v>265.0</v>
       </c>
       <c r="E15" t="n">
-        <v>84.0</v>
+        <v>28.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00260366851725413</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G15" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H15" t="n">
-        <v>2.66335709542836E-4</v>
+        <v>1.77721953788421E-6</v>
       </c>
       <c r="I15" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1799154334038055</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L15" t="n">
-        <v>0.006017018803703045</v>
+        <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.177589852008457</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D16" t="n">
         <v>103.0</v>
@@ -3578,13 +3625,13 @@
         <v>15.0</v>
       </c>
       <c r="F16" t="n">
-        <v>3.96357880596532E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G16" t="n">
-        <v>9.05702480294115E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00920956456293582</v>
+        <v>0.00167276266869532</v>
       </c>
       <c r="I16" t="n">
         <v>20.0</v>
@@ -3607,28 +3654,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D17" t="n">
-        <v>26.0</v>
+        <v>158.0</v>
       </c>
       <c r="E17" t="n">
-        <v>25.0</v>
+        <v>46.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.152526861987935</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G17" t="n">
-        <v>5.32401707922167E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H17" t="n">
-        <v>4.94689940303263E-4</v>
+        <v>0.00131454955057744</v>
       </c>
       <c r="I17" t="n">
         <v>20.0</v>
@@ -3637,42 +3684,42 @@
         <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N17" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
         <v>91</v>
       </c>
       <c r="D18" t="n">
-        <v>265.0</v>
+        <v>250.0</v>
       </c>
       <c r="E18" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="F18" t="n">
-        <v>4.00070999263567E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G18" t="n">
-        <v>4.05690370510693E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H18" t="n">
-        <v>2.49022843057501E-4</v>
+        <v>0.00148405904181779</v>
       </c>
       <c r="I18" t="n">
         <v>20.0</v>
@@ -3681,13 +3728,13 @@
         <v>100.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -3695,43 +3742,43 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D19" t="n">
-        <v>120.0</v>
+        <v>48.0</v>
       </c>
       <c r="E19" t="n">
-        <v>82.0</v>
+        <v>19.0</v>
       </c>
       <c r="F19" t="n">
-        <v>3.94511214512808E-5</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G19" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00112197360386636</v>
+        <v>2.75013925583083E-4</v>
       </c>
       <c r="I19" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1733615221987315</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.173361522198731</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
@@ -3739,28 +3786,28 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D20" t="n">
-        <v>48.0</v>
+        <v>250.0</v>
       </c>
       <c r="E20" t="n">
-        <v>19.0</v>
+        <v>27.0</v>
       </c>
       <c r="F20" t="n">
-        <v>3.98211137138711E-5</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G20" t="n">
-        <v>4.03810600803007E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00205785005792113</v>
+        <v>0.00580706674183575</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
@@ -3769,13 +3816,13 @@
         <v>0.0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.040169133192389</v>
+        <v>0.05708245243128964</v>
       </c>
       <c r="L20" t="n">
         <v>0.0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0570824524312896</v>
       </c>
       <c r="N20" t="n">
         <v>0.0</v>
@@ -3783,28 +3830,28 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D21" t="n">
-        <v>250.0</v>
+        <v>266.0</v>
       </c>
       <c r="E21" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F21" t="n">
-        <v>4.03810600803007E-5</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G21" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0156710438786786</v>
+        <v>2.7663019432251E-5</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
@@ -3813,13 +3860,13 @@
         <v>0.0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05708245243128964</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0570824524312896</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N21" t="n">
         <v>0.0</v>
@@ -3827,28 +3874,28 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D22" t="n">
-        <v>266.0</v>
+        <v>250.0</v>
       </c>
       <c r="E22" t="n">
-        <v>28.0</v>
+        <v>34.0</v>
       </c>
       <c r="F22" t="n">
-        <v>3.94511214512808E-5</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G22" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H22" t="n">
-        <v>6.07025207439655E-5</v>
+        <v>0.0203099057522167</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
@@ -3857,13 +3904,13 @@
         <v>0.0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
@@ -3871,28 +3918,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D23" t="n">
-        <v>250.0</v>
+        <v>27.0</v>
       </c>
       <c r="E23" t="n">
-        <v>34.0</v>
+        <v>15.0</v>
       </c>
       <c r="F23" t="n">
-        <v>4.05690370510693E-5</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G23" t="n">
-        <v>2.8351421540276E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00966219049106077</v>
+        <v>0.0356623108130311</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
@@ -3901,13 +3948,13 @@
         <v>0.0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L23" t="n">
         <v>0.0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
@@ -3918,25 +3965,25 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D24" t="n">
-        <v>27.0</v>
+        <v>250.0</v>
       </c>
       <c r="E24" t="n">
         <v>15.0</v>
       </c>
       <c r="F24" t="n">
-        <v>1.91206465349113E-4</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G24" t="n">
-        <v>2.76426360017691E-4</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0262910800339557</v>
+        <v>3.12027396593513E-4</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -3962,25 +4009,25 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D25" t="n">
-        <v>250.0</v>
+        <v>93.0</v>
       </c>
       <c r="E25" t="n">
-        <v>15.0</v>
+        <v>59.0</v>
       </c>
       <c r="F25" t="n">
-        <v>4.00070999263567E-5</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G25" t="n">
-        <v>4.05690370510693E-5</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00325805922031213</v>
+        <v>0.0204179464513697</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -3989,42 +4036,42 @@
         <v>0.0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.12473572938689217</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.124735729386892</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0</v>
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
         <v>94</v>
       </c>
       <c r="D26" t="n">
-        <v>93.0</v>
+        <v>158.0</v>
       </c>
       <c r="E26" t="n">
         <v>59.0</v>
       </c>
       <c r="F26" t="n">
-        <v>4.03810600803007E-5</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G26" t="n">
-        <v>4.05690370510693E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0171403768489598</v>
+        <v>0.00334798701112857</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -4047,28 +4094,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D27" t="n">
-        <v>158.0</v>
+        <v>64.0</v>
       </c>
       <c r="E27" t="n">
-        <v>59.0</v>
+        <v>37.0</v>
       </c>
       <c r="F27" t="n">
-        <v>3.98211137138711E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G27" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00174561413301942</v>
+        <v>0.00333892782400472</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -4077,24 +4124,24 @@
         <v>0.0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.12473572938689217</v>
+        <v>0.07822410147991543</v>
       </c>
       <c r="L27" t="n">
         <v>0.0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.124735729386892</v>
+        <v>0.0782241014799154</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0</v>
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
         <v>95</v>
@@ -4106,13 +4153,13 @@
         <v>37.0</v>
       </c>
       <c r="F28" t="n">
-        <v>4.01937482104294E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G28" t="n">
-        <v>5.67028430805521E-6</v>
+        <v>0.00793650793650794</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0328740366245698</v>
+        <v>0.0641712118646901</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
@@ -4138,25 +4185,25 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
         <v>96</v>
       </c>
       <c r="D29" t="n">
-        <v>46.0</v>
+        <v>37.0</v>
       </c>
       <c r="E29" t="n">
         <v>28.0</v>
       </c>
       <c r="F29" t="n">
-        <v>4.00070999263567E-5</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="G29" t="n">
-        <v>4.05690370510693E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0126685742084983</v>
+        <v>0.015920859802431</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
@@ -4168,7 +4215,7 @@
         <v>0.05919661733615222</v>
       </c>
       <c r="L29" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M29" t="n">
         <v>0.0591966173361522</v>
@@ -4182,25 +4229,25 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D30" t="n">
-        <v>31.0</v>
+        <v>46.0</v>
       </c>
       <c r="E30" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="F30" t="n">
-        <v>3.10447110976375E-4</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G30" t="n">
-        <v>1.51573604066999E-4</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H30" t="n">
-        <v>0.00171180225520351</v>
+        <v>0.0142728080658903</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
@@ -4209,13 +4256,13 @@
         <v>0.0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L30" t="n">
         <v>0.0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N30" t="n">
         <v>0.0</v>
@@ -4226,25 +4273,25 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D31" t="n">
-        <v>64.0</v>
+        <v>35.0</v>
       </c>
       <c r="E31" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="F31" t="n">
-        <v>4.01937482104294E-5</v>
+        <v>0.0468463097466241</v>
       </c>
       <c r="G31" t="n">
-        <v>5.67028430805521E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00400388194479535</v>
+        <v>0.0417860943528127</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -4253,13 +4300,13 @@
         <v>0.0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L31" t="n">
         <v>0.0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N31" t="n">
         <v>0.0</v>
@@ -4267,28 +4314,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D32" t="n">
-        <v>120.0</v>
+        <v>28.0</v>
       </c>
       <c r="E32" t="n">
         <v>25.0</v>
       </c>
       <c r="F32" t="n">
-        <v>3.98211137138711E-5</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="G32" t="n">
-        <v>2.49559700494108E-4</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0292486637266346</v>
+        <v>0.00528885616238524</v>
       </c>
       <c r="I32" t="n">
         <v>0.0</v>
@@ -4311,28 +4358,28 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D33" t="n">
-        <v>84.0</v>
+        <v>31.0</v>
       </c>
       <c r="E33" t="n">
-        <v>46.0</v>
+        <v>25.0</v>
       </c>
       <c r="F33" t="n">
-        <v>4.00070999263567E-5</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G33" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H33" t="n">
-        <v>0.00233012897009903</v>
+        <v>0.00130554100709877</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -4341,13 +4388,13 @@
         <v>0.0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.09725158562367865</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L33" t="n">
         <v>0.0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0972515856236787</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N33" t="n">
         <v>0.0</v>
@@ -4355,28 +4402,28 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D34" t="n">
-        <v>28.0</v>
+        <v>84.0</v>
       </c>
       <c r="E34" t="n">
-        <v>25.0</v>
+        <v>46.0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0781813607176114</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G34" t="n">
-        <v>1.37504394470339E-4</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0116660628744089</v>
+        <v>0.00153994324064719</v>
       </c>
       <c r="I34" t="n">
         <v>0.0</v>
@@ -4385,13 +4432,13 @@
         <v>0.0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L34" t="n">
         <v>0.0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N34" t="n">
         <v>0.0</v>
@@ -4399,28 +4446,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D35" t="n">
-        <v>41.0</v>
+        <v>31.0</v>
       </c>
       <c r="E35" t="n">
         <v>25.0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.00631027204721E-4</v>
+        <v>0.0172268185197356</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0033171163202123</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0412147538761723</v>
+        <v>0.00352256830938948</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
@@ -4438,33 +4485,33 @@
         <v>0.0528541226215645</v>
       </c>
       <c r="N35" t="n">
-        <v>3.2710259555912E-18</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D36" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="E36" t="n">
         <v>31.0</v>
       </c>
-      <c r="E36" t="n">
-        <v>25.0</v>
-      </c>
       <c r="F36" t="n">
-        <v>0.0103518063361436</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00139741709026299</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H36" t="n">
-        <v>0.00352256830938948</v>
+        <v>0.0572545435376393</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -4473,42 +4520,42 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L36" t="n">
         <v>0.0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N36" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D37" t="n">
-        <v>29.0</v>
+        <v>250.0</v>
       </c>
       <c r="E37" t="n">
-        <v>21.0</v>
+        <v>64.0</v>
       </c>
       <c r="F37" t="n">
-        <v>4.40020141684033E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G37" t="n">
-        <v>5.0972004288815E-4</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0216063535989695</v>
+        <v>0.0500405705476867</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -4517,13 +4564,13 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.04439746300211417</v>
+        <v>0.13530655391120508</v>
       </c>
       <c r="L37" t="n">
         <v>0.0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0443974630021142</v>
+        <v>0.135306553911205</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
@@ -4531,28 +4578,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D38" t="n">
-        <v>32.0</v>
+        <v>37.0</v>
       </c>
       <c r="E38" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.486837039113972</v>
+        <v>0.00798534817689006</v>
       </c>
       <c r="G38" t="n">
-        <v>4.2527132310414E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0381821200374826</v>
+        <v>0.00573068158794917</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
@@ -4561,13 +4608,13 @@
         <v>0.0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.05708245243128964</v>
       </c>
       <c r="L38" t="n">
-        <v>6.542051911182396E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.06553911205074</v>
+        <v>0.0570824524312896</v>
       </c>
       <c r="N38" t="n">
         <v>0.0</v>
@@ -4575,28 +4622,28 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D39" t="n">
-        <v>265.0</v>
+        <v>41.0</v>
       </c>
       <c r="E39" t="n">
-        <v>64.0</v>
+        <v>27.0</v>
       </c>
       <c r="F39" t="n">
-        <v>4.05690370510693E-5</v>
+        <v>0.00793650793650794</v>
       </c>
       <c r="G39" t="n">
-        <v>4.2527132310414E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0186021380270335</v>
+        <v>0.00496140462033587</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
@@ -4605,42 +4652,42 @@
         <v>0.0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.13530655391120508</v>
+        <v>0.05708245243128964</v>
       </c>
       <c r="L39" t="n">
         <v>0.0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.135306553911205</v>
+        <v>0.0570824524312896</v>
       </c>
       <c r="N39" t="n">
-        <v>9.25185853854297E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D40" t="n">
-        <v>26.0</v>
+        <v>59.0</v>
       </c>
       <c r="E40" t="n">
-        <v>15.0</v>
+        <v>31.0</v>
       </c>
       <c r="F40" t="n">
-        <v>3.39282137210751E-4</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G40" t="n">
-        <v>0.014956495160388</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H40" t="n">
-        <v>0.165433788752549</v>
+        <v>0.00872783618701037</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
@@ -4649,13 +4696,13 @@
         <v>0.0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N40" t="n">
         <v>0.0</v>
@@ -4663,28 +4710,28 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D41" t="n">
-        <v>25.0</v>
+        <v>78.0</v>
       </c>
       <c r="E41" t="n">
-        <v>15.0</v>
+        <v>31.0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.2613689869643E-4</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G41" t="n">
-        <v>0.00626809136135859</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H41" t="n">
-        <v>0.133989159847172</v>
+        <v>0.0865916560787768</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
@@ -4693,42 +4740,42 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0</v>
+        <v>6.5420519111824E-18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D42" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="E42" t="n">
         <v>37.0</v>
       </c>
-      <c r="E42" t="n">
-        <v>27.0</v>
-      </c>
       <c r="F42" t="n">
-        <v>6.80808174116957E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G42" t="n">
-        <v>6.95828578563922E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0236377398896144</v>
+        <v>0.00201437246540173</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
@@ -4737,42 +4784,42 @@
         <v>0.0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.05708245243128964</v>
+        <v>0.07822410147991543</v>
       </c>
       <c r="L42" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0570824524312896</v>
+        <v>0.0782241014799154</v>
       </c>
       <c r="N42" t="n">
-        <v>3.2710259555912E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D43" t="n">
-        <v>41.0</v>
+        <v>46.0</v>
       </c>
       <c r="E43" t="n">
-        <v>27.0</v>
+        <v>23.0</v>
       </c>
       <c r="F43" t="n">
-        <v>8.94312515634634E-5</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G43" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H43" t="n">
-        <v>0.00658547665882854</v>
+        <v>0.145038385111565</v>
       </c>
       <c r="I43" t="n">
         <v>0.0</v>
@@ -4781,13 +4828,13 @@
         <v>0.0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.05708245243128964</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L43" t="n">
         <v>2.3129646346357427E-18</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0570824524312896</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N43" t="n">
         <v>0.0</v>
@@ -4795,28 +4842,28 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D44" t="n">
-        <v>59.0</v>
+        <v>93.0</v>
       </c>
       <c r="E44" t="n">
-        <v>31.0</v>
+        <v>23.0</v>
       </c>
       <c r="F44" t="n">
-        <v>4.00070999263567E-5</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G44" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0337854418227502</v>
+        <v>0.0914870429913643</v>
       </c>
       <c r="I44" t="n">
         <v>0.0</v>
@@ -4825,13 +4872,13 @@
         <v>0.0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L44" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M44" t="n">
-        <v>0.06553911205074</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N44" t="n">
         <v>0.0</v>
@@ -4839,28 +4886,28 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D45" t="n">
-        <v>78.0</v>
+        <v>26.0</v>
       </c>
       <c r="E45" t="n">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
       <c r="F45" t="n">
-        <v>4.00070999263567E-5</v>
+        <v>0.0166693416357932</v>
       </c>
       <c r="G45" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0409474055007862</v>
+        <v>0.0165947985726984</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
@@ -4869,86 +4916,86 @@
         <v>0.0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L45" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.06553911205074</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N45" t="n">
-        <v>6.5420519111824E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D46" t="n">
-        <v>222.0</v>
+        <v>25.0</v>
       </c>
       <c r="E46" t="n">
-        <v>37.0</v>
+        <v>26.0</v>
       </c>
       <c r="F46" t="n">
-        <v>3.98211137138711E-5</v>
+        <v>0.414406187123225</v>
       </c>
       <c r="G46" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H46" t="n">
-        <v>0.00701051550656743</v>
+        <v>0.00877923124276454</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.07822410147991543</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L46" t="n">
         <v>0.0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0782241014799154</v>
+        <v>0.0551797040169133</v>
       </c>
       <c r="N46" t="n">
-        <v>0.0</v>
+        <v>6.68557644855895E-4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D47" t="n">
-        <v>46.0</v>
+        <v>250.0</v>
       </c>
       <c r="E47" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="F47" t="n">
-        <v>3.98211137138711E-5</v>
+        <v>0.00557971264145738</v>
       </c>
       <c r="G47" t="n">
-        <v>2.8351421540276E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0615559278427358</v>
+        <v>6.16668310928288E-4</v>
       </c>
       <c r="I47" t="n">
         <v>0.0</v>
@@ -4957,13 +5004,13 @@
         <v>0.0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L47" t="n">
         <v>0.0</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N47" t="n">
         <v>0.0</v>
@@ -4971,28 +5018,28 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D48" t="n">
-        <v>93.0</v>
+        <v>41.0</v>
       </c>
       <c r="E48" t="n">
-        <v>23.0</v>
+        <v>35.0</v>
       </c>
       <c r="F48" t="n">
-        <v>4.00070999263567E-5</v>
+        <v>0.299643165183856</v>
       </c>
       <c r="G48" t="n">
-        <v>6.37906984656211E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0643980845896721</v>
+        <v>0.00968077529339387</v>
       </c>
       <c r="I48" t="n">
         <v>0.0</v>
@@ -5001,13 +5048,13 @@
         <v>0.0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.07399577167019028</v>
       </c>
       <c r="L48" t="n">
         <v>0.0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.0739957716701903</v>
       </c>
       <c r="N48" t="n">
         <v>0.0</v>
@@ -5015,28 +5062,28 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
         <v>77</v>
       </c>
       <c r="D49" t="n">
-        <v>26.0</v>
+        <v>93.0</v>
       </c>
       <c r="E49" t="n">
-        <v>26.0</v>
+        <v>48.0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.21410998672065</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G49" t="n">
-        <v>4.03810600803007E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H49" t="n">
-        <v>0.036100978579885</v>
+        <v>0.01807073606392</v>
       </c>
       <c r="I49" t="n">
         <v>0.0</v>
@@ -5045,13 +5092,13 @@
         <v>0.0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.1014799154334038</v>
       </c>
       <c r="L49" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.101479915433404</v>
       </c>
       <c r="N49" t="n">
         <v>0.0</v>
@@ -5059,28 +5106,28 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
         <v>77</v>
       </c>
       <c r="D50" t="n">
-        <v>37.0</v>
+        <v>250.0</v>
       </c>
       <c r="E50" t="n">
-        <v>26.0</v>
+        <v>48.0</v>
       </c>
       <c r="F50" t="n">
-        <v>3.08235961423601E-4</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G50" t="n">
-        <v>1.37504394470339E-4</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H50" t="n">
-        <v>0.00776457953877775</v>
+        <v>0.0055462271686999</v>
       </c>
       <c r="I50" t="n">
         <v>0.0</v>
@@ -5089,13 +5136,13 @@
         <v>0.0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.1014799154334038</v>
       </c>
       <c r="L50" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.101479915433404</v>
       </c>
       <c r="N50" t="n">
         <v>0.0</v>
@@ -5103,28 +5150,28 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D51" t="n">
-        <v>41.0</v>
+        <v>250.0</v>
       </c>
       <c r="E51" t="n">
-        <v>35.0</v>
+        <v>103.0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0351571806473262</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G51" t="n">
-        <v>2.76426360017691E-4</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0131530329037102</v>
+        <v>0.0424915803314463</v>
       </c>
       <c r="I51" t="n">
         <v>0.0</v>
@@ -5133,13 +5180,13 @@
         <v>0.0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.07399577167019028</v>
+        <v>0.21775898520084566</v>
       </c>
       <c r="L51" t="n">
         <v>0.0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0739957716701903</v>
+        <v>0.217758985200846</v>
       </c>
       <c r="N51" t="n">
         <v>0.0</v>
@@ -5147,28 +5194,28 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="D52" t="n">
-        <v>93.0</v>
+        <v>250.0</v>
       </c>
       <c r="E52" t="n">
-        <v>48.0</v>
+        <v>78.0</v>
       </c>
       <c r="F52" t="n">
-        <v>4.01937482104294E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G52" t="n">
-        <v>5.67028430805521E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0270625789102037</v>
+        <v>0.0673405159954021</v>
       </c>
       <c r="I52" t="n">
         <v>0.0</v>
@@ -5177,13 +5224,13 @@
         <v>0.0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.1014799154334038</v>
+        <v>0.1649048625792812</v>
       </c>
       <c r="L52" t="n">
         <v>0.0</v>
       </c>
       <c r="M52" t="n">
-        <v>0.101479915433404</v>
+        <v>0.164904862579281</v>
       </c>
       <c r="N52" t="n">
         <v>0.0</v>
@@ -5191,28 +5238,28 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D53" t="n">
         <v>250.0</v>
       </c>
       <c r="E53" t="n">
-        <v>48.0</v>
+        <v>120.0</v>
       </c>
       <c r="F53" t="n">
-        <v>4.03810600803007E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G53" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00267987618891109</v>
+        <v>0.00665908854938229</v>
       </c>
       <c r="I53" t="n">
         <v>0.0</v>
@@ -5221,13 +5268,13 @@
         <v>0.0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.1014799154334038</v>
+        <v>0.2536997885835095</v>
       </c>
       <c r="L53" t="n">
         <v>0.0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.101479915433404</v>
+        <v>0.25369978858351</v>
       </c>
       <c r="N53" t="n">
         <v>0.0</v>
@@ -5235,28 +5282,28 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="D54" t="n">
-        <v>250.0</v>
+        <v>82.0</v>
       </c>
       <c r="E54" t="n">
-        <v>103.0</v>
+        <v>36.0</v>
       </c>
       <c r="F54" t="n">
-        <v>4.03810600803007E-5</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G54" t="n">
-        <v>1.4175710770138E-6</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0722126652745831</v>
+        <v>0.0265719303468058</v>
       </c>
       <c r="I54" t="n">
         <v>0.0</v>
@@ -5265,13 +5312,13 @@
         <v>0.0</v>
       </c>
       <c r="K54" t="n">
-        <v>0.21775898520084566</v>
+        <v>0.07610993657505286</v>
       </c>
       <c r="L54" t="n">
         <v>0.0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.217758985200846</v>
+        <v>0.0761099365750529</v>
       </c>
       <c r="N54" t="n">
         <v>0.0</v>
@@ -5279,145 +5326,145 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" t="s">
         <v>69</v>
       </c>
-      <c r="C55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" t="n">
-        <v>250.0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4.05690370510693E-5</v>
-      </c>
-      <c r="G55" t="n">
-        <v>5.20248585264065E-4</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.196769638787916</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.0</v>
+      <c r="D55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J55" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K55" t="n">
-        <v>0.1649048625792812</v>
+        <v>0.0613107822410148</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.164904862579281</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0.0</v>
+        <v>3.271025955591198E-18</v>
+      </c>
+      <c r="M55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N55" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" t="n">
-        <v>250.0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4.03810600803007E-5</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1.4175710770138E-6</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.0239003902828157</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.0</v>
+        <v>97</v>
+      </c>
+      <c r="D56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J56" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K56" t="n">
-        <v>0.2536997885835095</v>
+        <v>0.06765327695560254</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.25369978858351</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
+      </c>
+      <c r="M56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N56" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>3.98211137138711E-5</v>
-      </c>
-      <c r="G57" t="n">
-        <v>7.2213970324412E-4</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.0369771841620004</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.0</v>
+        <v>98</v>
+      </c>
+      <c r="D57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J57" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K57" t="n">
-        <v>0.07610993657505286</v>
+        <v>0.08668076109936575</v>
       </c>
       <c r="L57" t="n">
         <v>0.0</v>
       </c>
-      <c r="M57" t="n">
-        <v>0.0761099365750529</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0.0</v>
+      <c r="M57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N57" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D58" t="e">
         <v>#NUM!</v>
@@ -5441,10 +5488,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0613107822410148</v>
+        <v>0.13742071881606766</v>
       </c>
       <c r="L58" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M58" t="e">
         <v>#NUM!</v>
@@ -5455,13 +5502,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="D59" t="e">
         <v>#NUM!</v>
@@ -5485,7 +5532,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K59" t="n">
-        <v>0.06765327695560254</v>
+        <v>0.042283298097251586</v>
       </c>
       <c r="L59" t="n">
         <v>0.0</v>
@@ -5499,13 +5546,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D60" t="e">
         <v>#NUM!</v>
@@ -5529,7 +5576,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K60" t="n">
-        <v>0.08668076109936575</v>
+        <v>0.19661733615221988</v>
       </c>
       <c r="L60" t="n">
         <v>0.0</v>
@@ -5546,10 +5593,10 @@
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D61" t="e">
         <v>#NUM!</v>
@@ -5573,7 +5620,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K61" t="n">
-        <v>0.13742071881606766</v>
+        <v>0.29809725158562367</v>
       </c>
       <c r="L61" t="n">
         <v>0.0</v>
@@ -5587,13 +5634,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D62" t="e">
         <v>#NUM!</v>
@@ -5617,7 +5664,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K62" t="n">
-        <v>0.042283298097251586</v>
+        <v>0.04439746300211417</v>
       </c>
       <c r="L62" t="n">
         <v>0.0</v>
@@ -5631,13 +5678,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D63" t="e">
         <v>#NUM!</v>
@@ -5661,10 +5708,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K63" t="n">
-        <v>0.19661733615221988</v>
+        <v>0.4714587737843552</v>
       </c>
       <c r="L63" t="n">
-        <v>9.25185853854297E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M63" t="e">
         <v>#NUM!</v>
@@ -5675,13 +5722,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D64" t="e">
         <v>#NUM!</v>
@@ -5705,7 +5752,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K64" t="n">
-        <v>0.29809725158562367</v>
+        <v>0.35517970401691334</v>
       </c>
       <c r="L64" t="n">
         <v>0.0</v>
@@ -5719,13 +5766,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="D65" t="e">
         <v>#NUM!</v>
@@ -5749,7 +5796,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K65" t="n">
-        <v>0.4714587737843552</v>
+        <v>0.3192389006342495</v>
       </c>
       <c r="L65" t="n">
         <v>0.0</v>
@@ -5763,13 +5810,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="D66" t="e">
         <v>#NUM!</v>
@@ -5793,7 +5840,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K66" t="n">
-        <v>0.35517970401691334</v>
+        <v>0.4397463002114165</v>
       </c>
       <c r="L66" t="n">
         <v>0.0</v>
@@ -5807,13 +5854,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D67" t="e">
         <v>#NUM!</v>
@@ -5837,10 +5884,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K67" t="n">
-        <v>0.3192389006342495</v>
+        <v>0.486892177589852</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0</v>
+        <v>0.0063071602072627235</v>
       </c>
       <c r="M67" t="e">
         <v>#NUM!</v>
@@ -5851,13 +5898,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="D68" t="e">
         <v>#NUM!</v>
@@ -5881,7 +5928,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K68" t="n">
-        <v>0.4397463002114165</v>
+        <v>0.4143763213530655</v>
       </c>
       <c r="L68" t="n">
         <v>0.0</v>
@@ -5895,13 +5942,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D69" t="e">
         <v>#NUM!</v>
@@ -5925,10 +5972,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K69" t="n">
-        <v>0.4887949260042283</v>
+        <v>0.33403805496828753</v>
       </c>
       <c r="L69" t="n">
-        <v>0.01099907710507494</v>
+        <v>0.0</v>
       </c>
       <c r="M69" t="e">
         <v>#NUM!</v>
@@ -5939,13 +5986,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="D70" t="e">
         <v>#NUM!</v>
@@ -5969,7 +6016,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K70" t="n">
-        <v>0.4143763213530655</v>
+        <v>0.33403805496828753</v>
       </c>
       <c r="L70" t="n">
         <v>0.0</v>
@@ -5983,13 +6030,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D71" t="e">
         <v>#NUM!</v>
@@ -6013,7 +6060,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K71" t="n">
-        <v>0.33403805496828753</v>
+        <v>0.3192389006342495</v>
       </c>
       <c r="L71" t="n">
         <v>0.0</v>
@@ -6027,13 +6074,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D72" t="e">
         <v>#NUM!</v>
@@ -6057,7 +6104,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K72" t="n">
-        <v>0.33403805496828753</v>
+        <v>0.26849894291754756</v>
       </c>
       <c r="L72" t="n">
         <v>0.0</v>
@@ -6071,13 +6118,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D73" t="e">
         <v>#NUM!</v>
@@ -6101,7 +6148,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K73" t="n">
-        <v>0.26849894291754756</v>
+        <v>0.4376321353065539</v>
       </c>
       <c r="L73" t="n">
         <v>0.0</v>
@@ -6115,13 +6162,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D74" t="e">
         <v>#NUM!</v>
@@ -6145,7 +6192,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K74" t="n">
-        <v>0.4376321353065539</v>
+        <v>0.3678646934460888</v>
       </c>
       <c r="L74" t="n">
         <v>0.0</v>
@@ -6159,13 +6206,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D75" t="e">
         <v>#NUM!</v>
@@ -6203,13 +6250,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D76" t="e">
         <v>#NUM!</v>

--- a/output/LUAD_statistics_all.xlsx
+++ b/output/LUAD_statistics_all.xlsx
@@ -54,60 +54,60 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>36</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>27</t>
+    <t>10</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -216,82 +216,82 @@
     <t>54</t>
   </si>
   <si>
+    <t>Pattern OR_CDKN2A</t>
+  </si>
+  <si>
     <t>Mutation EGFR</t>
   </si>
   <si>
     <t>Mutation KRAS</t>
   </si>
   <si>
+    <t>Mutation SMARCA4</t>
+  </si>
+  <si>
+    <t>Pattern OR_KRAS</t>
+  </si>
+  <si>
+    <t>Pattern OR_CDK4_TP53</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_SMARCA4</t>
+  </si>
+  <si>
+    <t>Mutation TP53</t>
+  </si>
+  <si>
     <t>Amplification CDK4</t>
   </si>
   <si>
-    <t>Mutation TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_KRAS</t>
+    <t>Mutation NF1</t>
+  </si>
+  <si>
+    <t>Mutation ARID1B</t>
+  </si>
+  <si>
+    <t>Mutation KEAP1</t>
   </si>
   <si>
     <t>Mutation ATM</t>
   </si>
   <si>
-    <t>Pattern OR_CDKN2A</t>
-  </si>
-  <si>
-    <t>Pattern OR_CDK4_TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_SMARCA4</t>
-  </si>
-  <si>
-    <t>Mutation NF1</t>
-  </si>
-  <si>
-    <t>Mutation SMARCA4</t>
-  </si>
-  <si>
-    <t>Mutation KEAP1</t>
-  </si>
-  <si>
-    <t>Mutation ARID1B</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
+    <t>Amplification CCND1</t>
+  </si>
+  <si>
     <t>Amplification EGFR</t>
   </si>
   <si>
     <t>Amplification KRAS</t>
   </si>
   <si>
+    <t>Mutation NFE2L2</t>
+  </si>
+  <si>
+    <t>Mutation STK11</t>
+  </si>
+  <si>
+    <t>Deletion CDKN2A</t>
+  </si>
+  <si>
+    <t>Mutation CDKN2A</t>
+  </si>
+  <si>
+    <t>Mutation RB1</t>
+  </si>
+  <si>
     <t>Amplification MDM2</t>
   </si>
   <si>
-    <t>Mutation RB1</t>
-  </si>
-  <si>
-    <t>Mutation STK11</t>
-  </si>
-  <si>
-    <t>Amplification CCND1</t>
-  </si>
-  <si>
-    <t>Deletion CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation NFE2L2</t>
+    <t>Mutation ROS1</t>
+  </si>
+  <si>
+    <t>Amplification MET</t>
   </si>
   <si>
     <t>Mutation RET</t>
-  </si>
-  <si>
-    <t>Amplification MET</t>
-  </si>
-  <si>
-    <t>Mutation CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation ROS1</t>
   </si>
   <si>
     <t>Amplification CCNE1</t>
@@ -572,19 +572,19 @@
         <v>81</v>
       </c>
       <c r="D2" t="n">
-        <v>65.0</v>
+        <v>103.0</v>
       </c>
       <c r="E2" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G2" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H2" t="n">
-        <v>3.24651120035433E-13</v>
+        <v>8.46735787535546E-6</v>
       </c>
       <c r="I2" t="n">
         <v>80.0</v>
@@ -593,16 +593,16 @@
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.04059196617336152</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>0.0013371152897117902</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N2" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -616,19 +616,19 @@
         <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>141.0</v>
+        <v>65.0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.0</v>
+        <v>28.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G3" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H3" t="n">
-        <v>8.88220599278587E-4</v>
+        <v>3.24651120035433E-13</v>
       </c>
       <c r="I3" t="n">
         <v>80.0</v>
@@ -637,13 +637,13 @@
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -660,19 +660,19 @@
         <v>83</v>
       </c>
       <c r="D4" t="n">
-        <v>29.0</v>
+        <v>141.0</v>
       </c>
       <c r="E4" t="n">
-        <v>26.0</v>
+        <v>34.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0177894166197971</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G4" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H4" t="n">
-        <v>3.80945122355267E-7</v>
+        <v>8.88220599278587E-4</v>
       </c>
       <c r="I4" t="n">
         <v>80.0</v>
@@ -681,16 +681,16 @@
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0551797040169133</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N4" t="n">
-        <v>6.68557644855895E-4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -704,34 +704,34 @@
         <v>84</v>
       </c>
       <c r="D5" t="n">
-        <v>250.0</v>
+        <v>48.0</v>
       </c>
       <c r="E5" t="n">
-        <v>31.0</v>
+        <v>15.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G5" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H5" t="n">
-        <v>1.07101678627571E-5</v>
+        <v>0.00161509241969472</v>
       </c>
       <c r="I5" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L5" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06553911205074</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
@@ -763,16 +763,16 @@
         <v>1.11208450607907E-5</v>
       </c>
       <c r="I6" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.17780126849894293</v>
+        <v>0.17758985200845667</v>
       </c>
       <c r="L6" t="n">
-        <v>6.685576448558929E-4</v>
+        <v>0.0</v>
       </c>
       <c r="M6" t="n">
         <v>0.177589852008457</v>
@@ -789,37 +789,37 @@
         <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D7" t="n">
-        <v>46.0</v>
+        <v>265.0</v>
       </c>
       <c r="E7" t="n">
-        <v>19.0</v>
+        <v>34.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G7" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00699258708471991</v>
+        <v>8.27584277446678E-5</v>
       </c>
       <c r="I7" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.040169133192389</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -836,34 +836,34 @@
         <v>86</v>
       </c>
       <c r="D8" t="n">
-        <v>103.0</v>
+        <v>120.0</v>
       </c>
       <c r="E8" t="n">
-        <v>19.0</v>
+        <v>82.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G8" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H8" t="n">
-        <v>8.46735787535546E-6</v>
+        <v>4.12608987825272E-4</v>
       </c>
       <c r="I8" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.040169133192389</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.040169133192389</v>
+        <v>0.173361522198731</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -877,37 +877,37 @@
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D9" t="n">
-        <v>265.0</v>
+        <v>250.0</v>
       </c>
       <c r="E9" t="n">
-        <v>34.0</v>
+        <v>25.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G9" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H9" t="n">
-        <v>8.27584277446678E-5</v>
+        <v>0.00148405904181779</v>
       </c>
       <c r="I9" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -918,43 +918,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" t="n">
-        <v>120.0</v>
+        <v>250.0</v>
       </c>
       <c r="E10" t="n">
-        <v>82.0</v>
+        <v>31.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G10" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H10" t="n">
-        <v>4.12608987825272E-4</v>
+        <v>1.07101678627571E-5</v>
       </c>
       <c r="I10" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1733615221987315</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.173361522198731</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0</v>
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="11">
@@ -962,25 +962,25 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D11" t="n">
-        <v>64.0</v>
+        <v>265.0</v>
       </c>
       <c r="E11" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0158730158730159</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0103051123549064</v>
+        <v>1.77721953788421E-6</v>
       </c>
       <c r="I11" t="n">
         <v>40.0</v>
@@ -989,16 +989,16 @@
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="12">
@@ -1006,25 +1006,25 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D12" t="n">
-        <v>48.0</v>
+        <v>29.0</v>
       </c>
       <c r="E12" t="n">
-        <v>15.0</v>
+        <v>26.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.0177894166197971</v>
       </c>
       <c r="G12" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00161509241969472</v>
+        <v>3.80945122355267E-7</v>
       </c>
       <c r="I12" t="n">
         <v>40.0</v>
@@ -1033,13 +1033,13 @@
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D13" t="n">
-        <v>265.0</v>
+        <v>64.0</v>
       </c>
       <c r="E13" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="F13" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H13" t="n">
-        <v>9.13202144083936E-5</v>
+        <v>0.0103051123549064</v>
       </c>
       <c r="I13" t="n">
         <v>40.0</v>
@@ -1077,16 +1077,16 @@
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L13" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="14">
@@ -1094,40 +1094,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D14" t="n">
-        <v>93.0</v>
+        <v>158.0</v>
       </c>
       <c r="E14" t="n">
-        <v>84.0</v>
+        <v>46.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.200982679178368</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G14" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H14" t="n">
-        <v>3.59155834889592E-4</v>
+        <v>0.00131454955057744</v>
       </c>
       <c r="I14" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.17780126849894293</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L14" t="n">
-        <v>6.685576448558929E-4</v>
+        <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.177589852008457</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -1138,25 +1138,25 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D15" t="n">
-        <v>265.0</v>
+        <v>25.0</v>
       </c>
       <c r="E15" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.414406187123225</v>
       </c>
       <c r="G15" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H15" t="n">
-        <v>1.77721953788421E-6</v>
+        <v>0.00877923124276454</v>
       </c>
       <c r="I15" t="n">
         <v>20.0</v>
@@ -1165,16 +1165,16 @@
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N15" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -1182,25 +1182,25 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D16" t="n">
-        <v>103.0</v>
+        <v>93.0</v>
       </c>
       <c r="E16" t="n">
-        <v>15.0</v>
+        <v>84.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.200982679178368</v>
       </c>
       <c r="G16" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00167276266869532</v>
+        <v>3.59155834889592E-4</v>
       </c>
       <c r="I16" t="n">
         <v>20.0</v>
@@ -1209,13 +1209,13 @@
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.17758985200845667</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -1226,16 +1226,16 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D17" t="n">
-        <v>158.0</v>
+        <v>46.0</v>
       </c>
       <c r="E17" t="n">
-        <v>46.0</v>
+        <v>19.0</v>
       </c>
       <c r="F17" t="n">
         <v>0.0058336561716597</v>
@@ -1244,22 +1244,22 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00131454955057744</v>
+        <v>0.00699258708471991</v>
       </c>
       <c r="I17" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J17" t="n">
         <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.09725158562367865</v>
+        <v>0.04059196617336152</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0</v>
+        <v>0.0013371152897117902</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0972515856236787</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -1270,16 +1270,16 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
         <v>91</v>
       </c>
       <c r="D18" t="n">
-        <v>250.0</v>
+        <v>103.0</v>
       </c>
       <c r="E18" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="F18" t="n">
         <v>0.00396825396825397</v>
@@ -1288,22 +1288,22 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00148405904181779</v>
+        <v>0.00167276266869532</v>
       </c>
       <c r="I18" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J18" t="n">
         <v>100.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -1314,25 +1314,25 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
         <v>92</v>
       </c>
       <c r="D19" t="n">
-        <v>25.0</v>
+        <v>265.0</v>
       </c>
       <c r="E19" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.414406187123225</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G19" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00877923124276454</v>
+        <v>9.13202144083936E-5</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
@@ -1341,13 +1341,13 @@
         <v>100.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
@@ -1405,7 +1405,7 @@
         <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -1476,7 +1476,7 @@
         <v>0.12473572938689217</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M22" t="e">
         <v>#NUM!</v>
@@ -1608,7 +1608,7 @@
         <v>0.06765327695560254</v>
       </c>
       <c r="L25" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M25" t="e">
         <v>#NUM!</v>
@@ -1669,7 +1669,7 @@
         <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -1801,7 +1801,7 @@
         <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -2109,7 +2109,7 @@
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D37" t="e">
         <v>#NUM!</v>
@@ -2153,7 +2153,7 @@
         <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D38" t="e">
         <v>#NUM!</v>
@@ -2285,7 +2285,7 @@
         <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D41" t="e">
         <v>#NUM!</v>
@@ -2329,7 +2329,7 @@
         <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D42" t="e">
         <v>#NUM!</v>
@@ -2441,10 +2441,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K44" t="n">
-        <v>0.486892177589852</v>
+        <v>0.48583509513742074</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0063071602072627235</v>
+        <v>0.005348461158847161</v>
       </c>
       <c r="M44" t="e">
         <v>#NUM!</v>
@@ -2505,7 +2505,7 @@
         <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D46" t="e">
         <v>#NUM!</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -3003,19 +3003,19 @@
         <v>81</v>
       </c>
       <c r="D2" t="n">
-        <v>65.0</v>
+        <v>103.0</v>
       </c>
       <c r="E2" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G2" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H2" t="n">
-        <v>3.24651120035433E-13</v>
+        <v>8.46735787535546E-6</v>
       </c>
       <c r="I2" t="n">
         <v>80.0</v>
@@ -3024,21 +3024,21 @@
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.04059196617336152</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>0.0013371152897117902</v>
       </c>
       <c r="M2" t="n">
-        <v>0.125792811839323</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00655429007672244</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -3047,19 +3047,19 @@
         <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>141.0</v>
+        <v>65.0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.0</v>
+        <v>28.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G3" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H3" t="n">
-        <v>8.88220599278587E-4</v>
+        <v>3.24651120035433E-13</v>
       </c>
       <c r="I3" t="n">
         <v>80.0</v>
@@ -3068,21 +3068,21 @@
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.127061310782241</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>0.00693712456790682</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -3091,19 +3091,19 @@
         <v>83</v>
       </c>
       <c r="D4" t="n">
-        <v>29.0</v>
+        <v>141.0</v>
       </c>
       <c r="E4" t="n">
-        <v>26.0</v>
+        <v>34.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0177894166197971</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G4" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H4" t="n">
-        <v>3.80945122355267E-7</v>
+        <v>8.88220599278587E-4</v>
       </c>
       <c r="I4" t="n">
         <v>80.0</v>
@@ -3112,13 +3112,13 @@
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -3135,34 +3135,34 @@
         <v>84</v>
       </c>
       <c r="D5" t="n">
-        <v>250.0</v>
+        <v>48.0</v>
       </c>
       <c r="E5" t="n">
-        <v>31.0</v>
+        <v>15.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G5" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H5" t="n">
-        <v>1.07101678627571E-5</v>
+        <v>0.00161509241969472</v>
       </c>
       <c r="I5" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L5" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06553911205074</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
@@ -3194,16 +3194,16 @@
         <v>1.11208450607907E-5</v>
       </c>
       <c r="I6" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.17780126849894293</v>
+        <v>0.17758985200845667</v>
       </c>
       <c r="L6" t="n">
-        <v>6.685576448558929E-4</v>
+        <v>0.0</v>
       </c>
       <c r="M6" t="n">
         <v>0.177589852008457</v>
@@ -3214,43 +3214,43 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D7" t="n">
-        <v>46.0</v>
+        <v>265.0</v>
       </c>
       <c r="E7" t="n">
-        <v>19.0</v>
+        <v>34.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G7" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00699258708471991</v>
+        <v>8.27584277446678E-5</v>
       </c>
       <c r="I7" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.040169133192389</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -3258,7 +3258,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -3267,34 +3267,34 @@
         <v>86</v>
       </c>
       <c r="D8" t="n">
-        <v>103.0</v>
+        <v>120.0</v>
       </c>
       <c r="E8" t="n">
-        <v>19.0</v>
+        <v>82.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G8" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H8" t="n">
-        <v>8.46735787535546E-6</v>
+        <v>4.12608987825272E-4</v>
       </c>
       <c r="I8" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.040169133192389</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.040169133192389</v>
+        <v>0.173361522198731</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -3302,43 +3302,43 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D9" t="n">
-        <v>265.0</v>
+        <v>250.0</v>
       </c>
       <c r="E9" t="n">
-        <v>34.0</v>
+        <v>25.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G9" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H9" t="n">
-        <v>8.27584277446678E-5</v>
+        <v>0.00148405904181779</v>
       </c>
       <c r="I9" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -3346,43 +3346,43 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" t="n">
-        <v>120.0</v>
+        <v>250.0</v>
       </c>
       <c r="E10" t="n">
-        <v>82.0</v>
+        <v>31.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G10" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H10" t="n">
-        <v>4.12608987825272E-4</v>
+        <v>1.07101678627571E-5</v>
       </c>
       <c r="I10" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1733615221987315</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.173361522198731</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -3390,28 +3390,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D11" t="n">
-        <v>64.0</v>
+        <v>265.0</v>
       </c>
       <c r="E11" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0158730158730159</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0103051123549064</v>
+        <v>1.77721953788421E-6</v>
       </c>
       <c r="I11" t="n">
         <v>40.0</v>
@@ -3420,13 +3420,13 @@
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
@@ -3434,28 +3434,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D12" t="n">
-        <v>48.0</v>
+        <v>29.0</v>
       </c>
       <c r="E12" t="n">
-        <v>15.0</v>
+        <v>26.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.0177894166197971</v>
       </c>
       <c r="G12" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00161509241969472</v>
+        <v>3.80945122355267E-7</v>
       </c>
       <c r="I12" t="n">
         <v>40.0</v>
@@ -3464,13 +3464,13 @@
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -3478,28 +3478,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D13" t="n">
-        <v>265.0</v>
+        <v>64.0</v>
       </c>
       <c r="E13" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="F13" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H13" t="n">
-        <v>9.13202144083936E-5</v>
+        <v>0.0103051123549064</v>
       </c>
       <c r="I13" t="n">
         <v>40.0</v>
@@ -3508,57 +3508,57 @@
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L13" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D14" t="n">
-        <v>93.0</v>
+        <v>158.0</v>
       </c>
       <c r="E14" t="n">
-        <v>84.0</v>
+        <v>46.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.200982679178368</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G14" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H14" t="n">
-        <v>3.59155834889592E-4</v>
+        <v>0.00131454955057744</v>
       </c>
       <c r="I14" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.17780126849894293</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L14" t="n">
-        <v>6.685576448558929E-4</v>
+        <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.177589852008457</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -3566,28 +3566,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D15" t="n">
-        <v>265.0</v>
+        <v>25.0</v>
       </c>
       <c r="E15" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.414406187123225</v>
       </c>
       <c r="G15" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H15" t="n">
-        <v>1.77721953788421E-6</v>
+        <v>0.00877923124276454</v>
       </c>
       <c r="I15" t="n">
         <v>20.0</v>
@@ -3596,42 +3596,42 @@
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N15" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D16" t="n">
-        <v>103.0</v>
+        <v>93.0</v>
       </c>
       <c r="E16" t="n">
-        <v>15.0</v>
+        <v>84.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.200982679178368</v>
       </c>
       <c r="G16" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00167276266869532</v>
+        <v>3.59155834889592E-4</v>
       </c>
       <c r="I16" t="n">
         <v>20.0</v>
@@ -3640,13 +3640,13 @@
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.17758985200845667</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -3654,19 +3654,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D17" t="n">
-        <v>158.0</v>
+        <v>46.0</v>
       </c>
       <c r="E17" t="n">
-        <v>46.0</v>
+        <v>19.0</v>
       </c>
       <c r="F17" t="n">
         <v>0.0058336561716597</v>
@@ -3675,22 +3675,22 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00131454955057744</v>
+        <v>0.00699258708471991</v>
       </c>
       <c r="I17" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J17" t="n">
         <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.09725158562367865</v>
+        <v>0.04059196617336152</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0</v>
+        <v>0.0013371152897117902</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0972515856236787</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -3698,43 +3698,43 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D18" t="n">
-        <v>250.0</v>
+        <v>48.0</v>
       </c>
       <c r="E18" t="n">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00148405904181779</v>
+        <v>2.75013925583083E-4</v>
       </c>
       <c r="I18" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.04059196617336152</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0</v>
+        <v>0.0013371152897117902</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -3742,28 +3742,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D19" t="n">
-        <v>48.0</v>
+        <v>250.0</v>
       </c>
       <c r="E19" t="n">
-        <v>19.0</v>
+        <v>27.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H19" t="n">
-        <v>2.75013925583083E-4</v>
+        <v>0.00580706674183575</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
@@ -3772,13 +3772,13 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.040169133192389</v>
+        <v>0.05708245243128964</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0570824524312896</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
@@ -3786,19 +3786,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D20" t="n">
-        <v>250.0</v>
+        <v>266.0</v>
       </c>
       <c r="E20" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="F20" t="n">
         <v>0.0059626167965088</v>
@@ -3807,7 +3807,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00580706674183575</v>
+        <v>2.7663019432251E-5</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
@@ -3816,33 +3816,33 @@
         <v>0.0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05708245243128964</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0570824524312896</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D21" t="n">
-        <v>266.0</v>
+        <v>250.0</v>
       </c>
       <c r="E21" t="n">
-        <v>28.0</v>
+        <v>34.0</v>
       </c>
       <c r="F21" t="n">
         <v>0.0059626167965088</v>
@@ -3851,7 +3851,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H21" t="n">
-        <v>2.7663019432251E-5</v>
+        <v>0.0203099057522167</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
@@ -3860,13 +3860,13 @@
         <v>0.0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N21" t="n">
         <v>0.0</v>
@@ -3874,19 +3874,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D22" t="n">
-        <v>250.0</v>
+        <v>27.0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.0</v>
+        <v>15.0</v>
       </c>
       <c r="F22" t="n">
         <v>0.0059626167965088</v>
@@ -3895,7 +3895,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0203099057522167</v>
+        <v>0.0356623108130311</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
@@ -3904,13 +3904,13 @@
         <v>0.0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
@@ -3918,28 +3918,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D23" t="n">
-        <v>27.0</v>
+        <v>250.0</v>
       </c>
       <c r="E23" t="n">
         <v>15.0</v>
       </c>
       <c r="F23" t="n">
+        <v>0.00396825396825397</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.0059626167965088</v>
       </c>
-      <c r="G23" t="n">
-        <v>0.00396825396825397</v>
-      </c>
       <c r="H23" t="n">
-        <v>0.0356623108130311</v>
+        <v>3.12027396593513E-4</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
@@ -3962,16 +3962,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D24" t="n">
-        <v>250.0</v>
+        <v>103.0</v>
       </c>
       <c r="E24" t="n">
         <v>15.0</v>
@@ -3980,16 +3980,16 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H24" t="n">
-        <v>3.12027396593513E-4</v>
+        <v>0.00167276266869532</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K24" t="n">
         <v>0.03171247357293869</v>
@@ -4039,18 +4039,18 @@
         <v>0.12473572938689217</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M25" t="n">
         <v>0.124735729386892</v>
       </c>
       <c r="N25" t="n">
-        <v>4.62592926927149E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>71</v>
@@ -4083,7 +4083,7 @@
         <v>0.12473572938689217</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M26" t="n">
         <v>0.124735729386892</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
         <v>76</v>
@@ -4133,7 +4133,7 @@
         <v>0.0782241014799154</v>
       </c>
       <c r="N27" t="n">
-        <v>4.62592926927149E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -4141,7 +4141,7 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
         <v>95</v>
@@ -4221,7 +4221,7 @@
         <v>0.0591966173361522</v>
       </c>
       <c r="N29" t="n">
-        <v>3.2710259555912E-18</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="30">
@@ -4229,7 +4229,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
         <v>96</v>
@@ -4265,7 +4265,7 @@
         <v>0.0591966173361522</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="31">
@@ -4320,7 +4320,7 @@
         <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D32" t="n">
         <v>28.0</v>
@@ -4364,7 +4364,7 @@
         <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D33" t="n">
         <v>31.0</v>
@@ -4408,7 +4408,7 @@
         <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D34" t="n">
         <v>84.0</v>
@@ -4446,13 +4446,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
         <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D35" t="n">
         <v>31.0</v>
@@ -4537,7 +4537,7 @@
         <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
         <v>76</v>
@@ -4617,7 +4617,7 @@
         <v>0.0570824524312896</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="39">
@@ -4672,7 +4672,7 @@
         <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D40" t="n">
         <v>59.0</v>
@@ -4699,13 +4699,13 @@
         <v>0.06553911205073996</v>
       </c>
       <c r="L40" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M40" t="n">
         <v>0.06553911205074</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0</v>
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="41">
@@ -4716,7 +4716,7 @@
         <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D41" t="n">
         <v>78.0</v>
@@ -4743,7 +4743,7 @@
         <v>0.06553911205073996</v>
       </c>
       <c r="L41" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M41" t="n">
         <v>0.06553911205074</v>
@@ -4801,10 +4801,10 @@
         <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D43" t="n">
         <v>46.0</v>
@@ -4831,7 +4831,7 @@
         <v>0.048625792811839326</v>
       </c>
       <c r="L43" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M43" t="n">
         <v>0.0486257928118393</v>
@@ -4848,7 +4848,7 @@
         <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D44" t="n">
         <v>93.0</v>
@@ -4875,54 +4875,54 @@
         <v>0.048625792811839326</v>
       </c>
       <c r="L44" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M44" t="n">
         <v>0.0486257928118393</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
         <v>92</v>
       </c>
       <c r="D45" t="n">
-        <v>26.0</v>
+        <v>265.0</v>
       </c>
       <c r="E45" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0166693416357932</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G45" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0165947985726984</v>
+        <v>9.13202144083936E-5</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L45" t="n">
         <v>0.0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N45" t="n">
         <v>0.0</v>
@@ -4930,46 +4930,46 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D46" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="E46" t="n">
         <v>26.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.414406187123225</v>
+        <v>0.0166693416357932</v>
       </c>
       <c r="G46" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H46" t="n">
-        <v>0.00877923124276454</v>
+        <v>0.0165947985726984</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K46" t="n">
         <v>0.05496828752642706</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0551797040169133</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N46" t="n">
-        <v>6.68557644855895E-4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -4977,10 +4977,10 @@
         <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D47" t="n">
         <v>250.0</v>
@@ -5007,7 +5007,7 @@
         <v>0.05496828752642706</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M47" t="n">
         <v>0.0549682875264271</v>
@@ -5068,7 +5068,7 @@
         <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D49" t="n">
         <v>93.0</v>
@@ -5109,10 +5109,10 @@
         <v>133</v>
       </c>
       <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s">
         <v>70</v>
-      </c>
-      <c r="C50" t="s">
-        <v>77</v>
       </c>
       <c r="D50" t="n">
         <v>250.0</v>
@@ -5153,10 +5153,10 @@
         <v>134</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D51" t="n">
         <v>250.0</v>
@@ -5197,7 +5197,7 @@
         <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
         <v>107</v>
@@ -5241,10 +5241,10 @@
         <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D53" t="n">
         <v>250.0</v>
@@ -5285,7 +5285,7 @@
         <v>137</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
         <v>117</v>
@@ -5326,13 +5326,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
         <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D55" t="e">
         <v>#NUM!</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B56" t="s">
         <v>80</v>
@@ -5403,7 +5403,7 @@
         <v>0.06765327695560254</v>
       </c>
       <c r="L56" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M56" t="e">
         <v>#NUM!</v>
@@ -5464,7 +5464,7 @@
         <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D58" t="e">
         <v>#NUM!</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B60" t="s">
         <v>80</v>
@@ -5596,7 +5596,7 @@
         <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D61" t="e">
         <v>#NUM!</v>
@@ -5684,7 +5684,7 @@
         <v>80</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D63" t="e">
         <v>#NUM!</v>
@@ -5816,7 +5816,7 @@
         <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D66" t="e">
         <v>#NUM!</v>
@@ -5884,10 +5884,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K67" t="n">
-        <v>0.486892177589852</v>
+        <v>0.48583509513742074</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0063071602072627235</v>
+        <v>0.005348461158847161</v>
       </c>
       <c r="M67" t="e">
         <v>#NUM!</v>

--- a/output/LUAD_statistics_all.xlsx
+++ b/output/LUAD_statistics_all.xlsx
@@ -54,60 +54,60 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
-    <t>36</t>
+    <t>35</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>31</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -216,82 +216,82 @@
     <t>54</t>
   </si>
   <si>
+    <t>Amplification CDK4</t>
+  </si>
+  <si>
+    <t>Pattern OR_KRAS</t>
+  </si>
+  <si>
     <t>Pattern OR_CDKN2A</t>
   </si>
   <si>
+    <t>Pattern OR_CDK4_TP53</t>
+  </si>
+  <si>
     <t>Mutation EGFR</t>
   </si>
   <si>
     <t>Mutation KRAS</t>
   </si>
   <si>
+    <t>Pattern OR_EGFR_SMARCA4</t>
+  </si>
+  <si>
+    <t>Mutation TP53</t>
+  </si>
+  <si>
+    <t>Mutation ATM</t>
+  </si>
+  <si>
+    <t>Mutation NF1</t>
+  </si>
+  <si>
     <t>Mutation SMARCA4</t>
   </si>
   <si>
-    <t>Pattern OR_KRAS</t>
-  </si>
-  <si>
-    <t>Pattern OR_CDK4_TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_SMARCA4</t>
-  </si>
-  <si>
-    <t>Mutation TP53</t>
-  </si>
-  <si>
-    <t>Amplification CDK4</t>
-  </si>
-  <si>
-    <t>Mutation NF1</t>
+    <t>Mutation KEAP1</t>
   </si>
   <si>
     <t>Mutation ARID1B</t>
   </si>
   <si>
-    <t>Mutation KEAP1</t>
-  </si>
-  <si>
-    <t>Mutation ATM</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
+    <t>Amplification MDM2</t>
+  </si>
+  <si>
     <t>Amplification CCND1</t>
   </si>
   <si>
     <t>Amplification EGFR</t>
   </si>
   <si>
+    <t>Mutation STK11</t>
+  </si>
+  <si>
     <t>Amplification KRAS</t>
   </si>
   <si>
+    <t>Deletion CDKN2A</t>
+  </si>
+  <si>
+    <t>Mutation RB1</t>
+  </si>
+  <si>
+    <t>Amplification MET</t>
+  </si>
+  <si>
+    <t>Mutation CDKN2A</t>
+  </si>
+  <si>
     <t>Mutation NFE2L2</t>
   </si>
   <si>
-    <t>Mutation STK11</t>
-  </si>
-  <si>
-    <t>Deletion CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation RB1</t>
-  </si>
-  <si>
-    <t>Amplification MDM2</t>
+    <t>Mutation RET</t>
   </si>
   <si>
     <t>Mutation ROS1</t>
-  </si>
-  <si>
-    <t>Amplification MET</t>
-  </si>
-  <si>
-    <t>Mutation RET</t>
   </si>
   <si>
     <t>Amplification CCNE1</t>
@@ -572,37 +572,37 @@
         <v>81</v>
       </c>
       <c r="D2" t="n">
-        <v>103.0</v>
+        <v>29.0</v>
       </c>
       <c r="E2" t="n">
-        <v>19.0</v>
+        <v>26.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0177894166197971</v>
       </c>
       <c r="G2" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H2" t="n">
-        <v>8.46735787535546E-6</v>
+        <v>3.80945122355267E-7</v>
       </c>
       <c r="I2" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04059196617336152</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0013371152897117902</v>
+        <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0551797040169133</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0</v>
+        <v>6.68557644855893E-4</v>
       </c>
     </row>
     <row r="3">
@@ -613,13 +613,13 @@
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>65.0</v>
+        <v>158.0</v>
       </c>
       <c r="E3" t="n">
-        <v>28.0</v>
+        <v>46.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.0058336561716597</v>
@@ -628,22 +628,22 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H3" t="n">
-        <v>3.24651120035433E-13</v>
+        <v>0.00131454955057744</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L3" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -657,13 +657,13 @@
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" t="n">
-        <v>141.0</v>
+        <v>103.0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.0</v>
+        <v>19.0</v>
       </c>
       <c r="F4" t="n">
         <v>0.0059626167965088</v>
@@ -672,7 +672,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H4" t="n">
-        <v>8.88220599278587E-4</v>
+        <v>8.46735787535546E-6</v>
       </c>
       <c r="I4" t="n">
         <v>80.0</v>
@@ -681,13 +681,13 @@
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -701,22 +701,22 @@
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" t="n">
-        <v>48.0</v>
+        <v>265.0</v>
       </c>
       <c r="E5" t="n">
-        <v>15.0</v>
+        <v>28.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G5" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00161509241969472</v>
+        <v>1.77721953788421E-6</v>
       </c>
       <c r="I5" t="n">
         <v>80.0</v>
@@ -725,13 +725,13 @@
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L5" t="n">
         <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
@@ -742,10 +742,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" t="n">
         <v>158.0</v>
@@ -786,25 +786,25 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
         <v>83</v>
       </c>
       <c r="D7" t="n">
-        <v>265.0</v>
+        <v>65.0</v>
       </c>
       <c r="E7" t="n">
-        <v>34.0</v>
+        <v>28.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G7" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H7" t="n">
-        <v>8.27584277446678E-5</v>
+        <v>3.24651120035433E-13</v>
       </c>
       <c r="I7" t="n">
         <v>60.0</v>
@@ -813,13 +813,13 @@
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -830,25 +830,25 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" t="n">
-        <v>120.0</v>
+        <v>141.0</v>
       </c>
       <c r="E8" t="n">
-        <v>82.0</v>
+        <v>34.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G8" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H8" t="n">
-        <v>4.12608987825272E-4</v>
+        <v>8.88220599278587E-4</v>
       </c>
       <c r="I8" t="n">
         <v>60.0</v>
@@ -857,13 +857,13 @@
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1733615221987315</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.173361522198731</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -874,16 +874,16 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" t="n">
-        <v>250.0</v>
+        <v>120.0</v>
       </c>
       <c r="E9" t="n">
-        <v>25.0</v>
+        <v>82.0</v>
       </c>
       <c r="F9" t="n">
         <v>0.00396825396825397</v>
@@ -892,7 +892,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00148405904181779</v>
+        <v>4.12608987825272E-4</v>
       </c>
       <c r="I9" t="n">
         <v>60.0</v>
@@ -901,13 +901,13 @@
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.173361522198731</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -921,7 +921,7 @@
         <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" t="n">
         <v>250.0</v>
@@ -954,7 +954,7 @@
         <v>0.06553911205074</v>
       </c>
       <c r="N10" t="n">
-        <v>4.62592926927149E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -962,25 +962,25 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
         <v>82</v>
       </c>
       <c r="D11" t="n">
-        <v>265.0</v>
+        <v>46.0</v>
       </c>
       <c r="E11" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G11" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H11" t="n">
-        <v>1.77721953788421E-6</v>
+        <v>0.00699258708471991</v>
       </c>
       <c r="I11" t="n">
         <v>40.0</v>
@@ -989,16 +989,16 @@
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L11" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N11" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
@@ -1006,25 +1006,25 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" t="n">
-        <v>29.0</v>
+        <v>103.0</v>
       </c>
       <c r="E12" t="n">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0177894166197971</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G12" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H12" t="n">
-        <v>3.80945122355267E-7</v>
+        <v>0.00167276266869532</v>
       </c>
       <c r="I12" t="n">
         <v>40.0</v>
@@ -1033,13 +1033,13 @@
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L12" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -1053,7 +1053,7 @@
         <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D13" t="n">
         <v>64.0</v>
@@ -1086,7 +1086,7 @@
         <v>0.0528541226215645</v>
       </c>
       <c r="N13" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -1094,40 +1094,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D14" t="n">
-        <v>158.0</v>
+        <v>250.0</v>
       </c>
       <c r="E14" t="n">
-        <v>46.0</v>
+        <v>25.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G14" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00131454955057744</v>
+        <v>0.00148405904181779</v>
       </c>
       <c r="I14" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.09725158562367865</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0972515856236787</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -1144,34 +1144,34 @@
         <v>90</v>
       </c>
       <c r="D15" t="n">
-        <v>25.0</v>
+        <v>48.0</v>
       </c>
       <c r="E15" t="n">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.414406187123225</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G15" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00877923124276454</v>
+        <v>0.00161509241969472</v>
       </c>
       <c r="I15" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L15" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
@@ -1185,7 +1185,7 @@
         <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" t="n">
         <v>93.0</v>
@@ -1203,7 +1203,7 @@
         <v>3.59155834889592E-4</v>
       </c>
       <c r="I16" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="J16" t="n">
         <v>100.0</v>
@@ -1226,40 +1226,40 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D17" t="n">
-        <v>46.0</v>
+        <v>265.0</v>
       </c>
       <c r="E17" t="n">
-        <v>19.0</v>
+        <v>34.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G17" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00699258708471991</v>
+        <v>8.27584277446678E-5</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="J17" t="n">
         <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04059196617336152</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0013371152897117902</v>
+        <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -1270,16 +1270,16 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
         <v>91</v>
       </c>
       <c r="D18" t="n">
-        <v>103.0</v>
+        <v>265.0</v>
       </c>
       <c r="E18" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F18" t="n">
         <v>0.00396825396825397</v>
@@ -1288,7 +1288,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00167276266869532</v>
+        <v>9.13202144083936E-5</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -1297,13 +1297,13 @@
         <v>100.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -1314,25 +1314,25 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
         <v>92</v>
       </c>
       <c r="D19" t="n">
-        <v>265.0</v>
+        <v>25.0</v>
       </c>
       <c r="E19" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.414406187123225</v>
       </c>
       <c r="G19" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H19" t="n">
-        <v>9.13202144083936E-5</v>
+        <v>0.00877923124276454</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
@@ -1341,13 +1341,13 @@
         <v>100.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
@@ -1388,7 +1388,7 @@
         <v>0.05708245243128964</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M20" t="e">
         <v>#NUM!</v>
@@ -1405,7 +1405,7 @@
         <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -1432,7 +1432,7 @@
         <v>0.0613107822410148</v>
       </c>
       <c r="L21" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M21" t="e">
         <v>#NUM!</v>
@@ -1476,7 +1476,7 @@
         <v>0.12473572938689217</v>
       </c>
       <c r="L22" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M22" t="e">
         <v>#NUM!</v>
@@ -1608,7 +1608,7 @@
         <v>0.06765327695560254</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M25" t="e">
         <v>#NUM!</v>
@@ -1669,7 +1669,7 @@
         <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -1801,7 +1801,7 @@
         <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -2048,7 +2048,7 @@
         <v>0.07822410147991543</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M35" t="e">
         <v>#NUM!</v>
@@ -2109,7 +2109,7 @@
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D37" t="e">
         <v>#NUM!</v>
@@ -2285,7 +2285,7 @@
         <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D41" t="e">
         <v>#NUM!</v>
@@ -2329,7 +2329,7 @@
         <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D42" t="e">
         <v>#NUM!</v>
@@ -2441,10 +2441,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K44" t="n">
-        <v>0.48583509513742074</v>
+        <v>0.493446088794926</v>
       </c>
       <c r="L44" t="n">
-        <v>0.005348461158847161</v>
+        <v>0.0172102199975923</v>
       </c>
       <c r="M44" t="e">
         <v>#NUM!</v>
@@ -2593,7 +2593,7 @@
         <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D48" t="e">
         <v>#NUM!</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -3003,34 +3003,34 @@
         <v>81</v>
       </c>
       <c r="D2" t="n">
-        <v>103.0</v>
+        <v>29.0</v>
       </c>
       <c r="E2" t="n">
-        <v>19.0</v>
+        <v>26.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0177894166197971</v>
       </c>
       <c r="G2" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H2" t="n">
-        <v>8.46735787535546E-6</v>
+        <v>3.80945122355267E-7</v>
       </c>
       <c r="I2" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04059196617336152</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0013371152897117902</v>
+        <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
@@ -3038,19 +3038,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>65.0</v>
+        <v>158.0</v>
       </c>
       <c r="E3" t="n">
-        <v>28.0</v>
+        <v>46.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.0058336561716597</v>
@@ -3059,42 +3059,42 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H3" t="n">
-        <v>3.24651120035433E-13</v>
+        <v>0.00131454955057744</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L3" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.127061310782241</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00693712456790682</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" t="n">
-        <v>141.0</v>
+        <v>103.0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.0</v>
+        <v>19.0</v>
       </c>
       <c r="F4" t="n">
         <v>0.0059626167965088</v>
@@ -3103,7 +3103,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H4" t="n">
-        <v>8.88220599278587E-4</v>
+        <v>8.46735787535546E-6</v>
       </c>
       <c r="I4" t="n">
         <v>80.0</v>
@@ -3112,13 +3112,13 @@
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -3126,28 +3126,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" t="n">
-        <v>48.0</v>
+        <v>265.0</v>
       </c>
       <c r="E5" t="n">
-        <v>15.0</v>
+        <v>28.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G5" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00161509241969472</v>
+        <v>1.77721953788421E-6</v>
       </c>
       <c r="I5" t="n">
         <v>80.0</v>
@@ -3156,13 +3156,13 @@
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L5" t="n">
         <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
@@ -3173,10 +3173,10 @@
         <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" t="n">
         <v>158.0</v>
@@ -3214,28 +3214,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
         <v>83</v>
       </c>
       <c r="D7" t="n">
-        <v>265.0</v>
+        <v>65.0</v>
       </c>
       <c r="E7" t="n">
-        <v>34.0</v>
+        <v>28.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G7" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H7" t="n">
-        <v>8.27584277446678E-5</v>
+        <v>3.24651120035433E-13</v>
       </c>
       <c r="I7" t="n">
         <v>60.0</v>
@@ -3244,42 +3244,42 @@
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.125581395348837</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0</v>
+        <v>0.00469579457334959</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" t="n">
-        <v>120.0</v>
+        <v>141.0</v>
       </c>
       <c r="E8" t="n">
-        <v>82.0</v>
+        <v>34.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G8" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H8" t="n">
-        <v>4.12608987825272E-4</v>
+        <v>8.88220599278587E-4</v>
       </c>
       <c r="I8" t="n">
         <v>60.0</v>
@@ -3288,13 +3288,13 @@
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1733615221987315</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.173361522198731</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -3302,19 +3302,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" t="n">
-        <v>250.0</v>
+        <v>120.0</v>
       </c>
       <c r="E9" t="n">
-        <v>25.0</v>
+        <v>82.0</v>
       </c>
       <c r="F9" t="n">
         <v>0.00396825396825397</v>
@@ -3323,7 +3323,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00148405904181779</v>
+        <v>4.12608987825272E-4</v>
       </c>
       <c r="I9" t="n">
         <v>60.0</v>
@@ -3332,13 +3332,13 @@
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.173361522198731</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -3352,7 +3352,7 @@
         <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" t="n">
         <v>250.0</v>
@@ -3390,28 +3390,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
         <v>82</v>
       </c>
       <c r="D11" t="n">
-        <v>265.0</v>
+        <v>46.0</v>
       </c>
       <c r="E11" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G11" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H11" t="n">
-        <v>1.77721953788421E-6</v>
+        <v>0.00699258708471991</v>
       </c>
       <c r="I11" t="n">
         <v>40.0</v>
@@ -3420,13 +3420,13 @@
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L11" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
@@ -3434,28 +3434,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" t="n">
-        <v>29.0</v>
+        <v>103.0</v>
       </c>
       <c r="E12" t="n">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0177894166197971</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G12" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H12" t="n">
-        <v>3.80945122355267E-7</v>
+        <v>0.00167276266869532</v>
       </c>
       <c r="I12" t="n">
         <v>40.0</v>
@@ -3464,13 +3464,13 @@
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L12" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -3484,7 +3484,7 @@
         <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D13" t="n">
         <v>64.0</v>
@@ -3522,43 +3522,43 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D14" t="n">
-        <v>158.0</v>
+        <v>250.0</v>
       </c>
       <c r="E14" t="n">
-        <v>46.0</v>
+        <v>25.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G14" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00131454955057744</v>
+        <v>0.00148405904181779</v>
       </c>
       <c r="I14" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.09725158562367865</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0972515856236787</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
@@ -3575,34 +3575,34 @@
         <v>90</v>
       </c>
       <c r="D15" t="n">
-        <v>25.0</v>
+        <v>48.0</v>
       </c>
       <c r="E15" t="n">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.414406187123225</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G15" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00877923124276454</v>
+        <v>0.00161509241969472</v>
       </c>
       <c r="I15" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L15" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
@@ -3616,7 +3616,7 @@
         <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" t="n">
         <v>93.0</v>
@@ -3634,7 +3634,7 @@
         <v>3.59155834889592E-4</v>
       </c>
       <c r="I16" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="J16" t="n">
         <v>100.0</v>
@@ -3654,43 +3654,43 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D17" t="n">
-        <v>46.0</v>
+        <v>265.0</v>
       </c>
       <c r="E17" t="n">
-        <v>19.0</v>
+        <v>34.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G17" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00699258708471991</v>
+        <v>8.27584277446678E-5</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="J17" t="n">
         <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04059196617336152</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0013371152897117902</v>
+        <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -3698,13 +3698,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D18" t="n">
         <v>48.0</v>
@@ -3728,10 +3728,10 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.04059196617336152</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0013371152897117902</v>
+        <v>0.0</v>
       </c>
       <c r="M18" t="n">
         <v>0.040169133192389</v>
@@ -3775,7 +3775,7 @@
         <v>0.05708245243128964</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M19" t="n">
         <v>0.0570824524312896</v>
@@ -3786,13 +3786,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" t="n">
         <v>266.0</v>
@@ -3819,7 +3819,7 @@
         <v>0.05919661733615222</v>
       </c>
       <c r="L20" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M20" t="n">
         <v>0.0591966173361522</v>
@@ -3830,13 +3830,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D21" t="n">
         <v>250.0</v>
@@ -3880,7 +3880,7 @@
         <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D22" t="n">
         <v>27.0</v>
@@ -3924,7 +3924,7 @@
         <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D23" t="n">
         <v>250.0</v>
@@ -3962,43 +3962,43 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D24" t="n">
-        <v>103.0</v>
+        <v>93.0</v>
       </c>
       <c r="E24" t="n">
-        <v>15.0</v>
+        <v>59.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00167276266869532</v>
+        <v>0.0204179464513697</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.12473572938689217</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.124735729386892</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
@@ -4006,16 +4006,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
         <v>94</v>
       </c>
       <c r="D25" t="n">
-        <v>93.0</v>
+        <v>158.0</v>
       </c>
       <c r="E25" t="n">
         <v>59.0</v>
@@ -4024,10 +4024,10 @@
         <v>0.0059626167965088</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0204179464513697</v>
+        <v>0.00334798701112857</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -4039,7 +4039,7 @@
         <v>0.12473572938689217</v>
       </c>
       <c r="L25" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M25" t="n">
         <v>0.124735729386892</v>
@@ -4053,25 +4053,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D26" t="n">
-        <v>158.0</v>
+        <v>64.0</v>
       </c>
       <c r="E26" t="n">
-        <v>59.0</v>
+        <v>37.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G26" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00334798701112857</v>
+        <v>0.00333892782400472</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -4080,13 +4080,13 @@
         <v>0.0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.12473572938689217</v>
+        <v>0.07822410147991543</v>
       </c>
       <c r="L26" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.124735729386892</v>
+        <v>0.0782241014799154</v>
       </c>
       <c r="N26" t="n">
         <v>0.0</v>
@@ -4094,16 +4094,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
         <v>95</v>
       </c>
       <c r="D27" t="n">
-        <v>64.0</v>
+        <v>250.0</v>
       </c>
       <c r="E27" t="n">
         <v>37.0</v>
@@ -4112,10 +4112,10 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.00793650793650794</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00333892782400472</v>
+        <v>0.0641712118646901</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -4138,28 +4138,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" t="n">
-        <v>250.0</v>
+        <v>37.0</v>
       </c>
       <c r="E28" t="n">
-        <v>37.0</v>
+        <v>28.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00793650793650794</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0641712118646901</v>
+        <v>0.015920859802431</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
@@ -4168,42 +4168,42 @@
         <v>0.0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.07822410147991543</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L28" t="n">
         <v>0.0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0782241014799154</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
         <v>96</v>
       </c>
       <c r="D29" t="n">
-        <v>37.0</v>
+        <v>46.0</v>
       </c>
       <c r="E29" t="n">
         <v>28.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0158730158730159</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G29" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H29" t="n">
-        <v>0.015920859802431</v>
+        <v>0.0142728080658903</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
@@ -4221,33 +4221,33 @@
         <v>0.0591966173361522</v>
       </c>
       <c r="N29" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
         <v>96</v>
       </c>
       <c r="D30" t="n">
-        <v>46.0</v>
+        <v>35.0</v>
       </c>
       <c r="E30" t="n">
         <v>28.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0468463097466241</v>
       </c>
       <c r="G30" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0142728080658903</v>
+        <v>0.0417860943528127</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
@@ -4270,28 +4270,28 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D31" t="n">
-        <v>35.0</v>
+        <v>28.0</v>
       </c>
       <c r="E31" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0468463097466241</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="G31" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0417860943528127</v>
+        <v>0.00528885616238524</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -4300,13 +4300,13 @@
         <v>0.0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L31" t="n">
         <v>0.0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N31" t="n">
         <v>0.0</v>
@@ -4314,28 +4314,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D32" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="E32" t="n">
         <v>25.0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0277777777777778</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G32" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H32" t="n">
-        <v>0.00528885616238524</v>
+        <v>0.00130554100709877</v>
       </c>
       <c r="I32" t="n">
         <v>0.0</v>
@@ -4358,28 +4358,28 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D33" t="n">
-        <v>31.0</v>
+        <v>84.0</v>
       </c>
       <c r="E33" t="n">
-        <v>25.0</v>
+        <v>46.0</v>
       </c>
       <c r="F33" t="n">
         <v>0.0059626167965088</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0158730158730159</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H33" t="n">
-        <v>0.00130554100709877</v>
+        <v>0.00153994324064719</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -4388,13 +4388,13 @@
         <v>0.0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L33" t="n">
         <v>0.0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N33" t="n">
         <v>0.0</v>
@@ -4402,28 +4402,28 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D34" t="n">
-        <v>84.0</v>
+        <v>31.0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.0</v>
+        <v>25.0</v>
       </c>
       <c r="F34" t="n">
+        <v>0.0172268185197356</v>
+      </c>
+      <c r="G34" t="n">
         <v>0.0059626167965088</v>
       </c>
-      <c r="G34" t="n">
-        <v>0.00396825396825397</v>
-      </c>
       <c r="H34" t="n">
-        <v>0.00153994324064719</v>
+        <v>0.00352256830938948</v>
       </c>
       <c r="I34" t="n">
         <v>0.0</v>
@@ -4432,13 +4432,13 @@
         <v>0.0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.09725158562367865</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L34" t="n">
         <v>0.0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0972515856236787</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N34" t="n">
         <v>0.0</v>
@@ -4446,28 +4446,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
         <v>101</v>
       </c>
-      <c r="C35" t="s">
-        <v>87</v>
-      </c>
       <c r="D35" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="E35" t="n">
         <v>31.0</v>
       </c>
-      <c r="E35" t="n">
-        <v>25.0</v>
-      </c>
       <c r="F35" t="n">
-        <v>0.0172268185197356</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H35" t="n">
-        <v>0.00352256830938948</v>
+        <v>0.0572545435376393</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
@@ -4476,42 +4476,42 @@
         <v>0.0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L35" t="n">
         <v>0.0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N35" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="D36" t="n">
-        <v>93.0</v>
+        <v>250.0</v>
       </c>
       <c r="E36" t="n">
-        <v>31.0</v>
+        <v>64.0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G36" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0572545435376393</v>
+        <v>0.0500405705476867</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -4520,42 +4520,42 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.13530655391120508</v>
       </c>
       <c r="L36" t="n">
         <v>0.0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.06553911205074</v>
+        <v>0.135306553911205</v>
       </c>
       <c r="N36" t="n">
-        <v>4.62592926927149E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D37" t="n">
-        <v>250.0</v>
+        <v>37.0</v>
       </c>
       <c r="E37" t="n">
-        <v>64.0</v>
+        <v>27.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.00798534817689006</v>
       </c>
       <c r="G37" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0500405705476867</v>
+        <v>0.00573068158794917</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -4564,13 +4564,13 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.13530655391120508</v>
+        <v>0.05708245243128964</v>
       </c>
       <c r="L37" t="n">
         <v>0.0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.135306553911205</v>
+        <v>0.0570824524312896</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
@@ -4578,28 +4578,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
         <v>102</v>
       </c>
       <c r="D38" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="E38" t="n">
         <v>27.0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00798534817689006</v>
+        <v>0.00793650793650794</v>
       </c>
       <c r="G38" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00573068158794917</v>
+        <v>0.00496140462033587</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
@@ -4622,28 +4622,28 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D39" t="n">
-        <v>41.0</v>
+        <v>59.0</v>
       </c>
       <c r="E39" t="n">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00793650793650794</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G39" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H39" t="n">
-        <v>0.00496140462033587</v>
+        <v>0.00872783618701037</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
@@ -4652,13 +4652,13 @@
         <v>0.0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.05708245243128964</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L39" t="n">
         <v>0.0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0570824524312896</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
@@ -4666,16 +4666,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D40" t="n">
-        <v>59.0</v>
+        <v>78.0</v>
       </c>
       <c r="E40" t="n">
         <v>31.0</v>
@@ -4687,7 +4687,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00872783618701037</v>
+        <v>0.0865916560787768</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
@@ -4710,28 +4710,28 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D41" t="n">
-        <v>78.0</v>
+        <v>222.0</v>
       </c>
       <c r="E41" t="n">
-        <v>31.0</v>
+        <v>37.0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G41" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0865916560787768</v>
+        <v>0.00201437246540173</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
@@ -4740,42 +4740,42 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.07822410147991543</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M41" t="n">
-        <v>0.06553911205074</v>
+        <v>0.0782241014799154</v>
       </c>
       <c r="N41" t="n">
-        <v>6.5420519111824E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D42" t="n">
-        <v>222.0</v>
+        <v>46.0</v>
       </c>
       <c r="E42" t="n">
-        <v>37.0</v>
+        <v>23.0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G42" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H42" t="n">
-        <v>0.00201437246540173</v>
+        <v>0.145038385111565</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
@@ -4784,30 +4784,30 @@
         <v>0.0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.07822410147991543</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L42" t="n">
         <v>0.0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0782241014799154</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" t="n">
-        <v>46.0</v>
+        <v>93.0</v>
       </c>
       <c r="E43" t="n">
         <v>23.0</v>
@@ -4816,10 +4816,10 @@
         <v>0.0059626167965088</v>
       </c>
       <c r="G43" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H43" t="n">
-        <v>0.145038385111565</v>
+        <v>0.0914870429913643</v>
       </c>
       <c r="I43" t="n">
         <v>0.0</v>
@@ -4842,34 +4842,34 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" t="n">
-        <v>93.0</v>
+        <v>265.0</v>
       </c>
       <c r="E44" t="n">
         <v>23.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0158730158730159</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0914870429913643</v>
+        <v>9.13202144083936E-5</v>
       </c>
       <c r="I44" t="n">
         <v>0.0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K44" t="n">
         <v>0.048625792811839326</v>
@@ -4881,95 +4881,95 @@
         <v>0.0486257928118393</v>
       </c>
       <c r="N44" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
         <v>92</v>
       </c>
       <c r="D45" t="n">
-        <v>265.0</v>
+        <v>26.0</v>
       </c>
       <c r="E45" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0166693416357932</v>
       </c>
       <c r="G45" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H45" t="n">
-        <v>9.13202144083936E-5</v>
+        <v>0.0165947985726984</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
       </c>
       <c r="J45" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L45" t="n">
         <v>0.0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D46" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="E46" t="n">
         <v>26.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0166693416357932</v>
+        <v>0.414406187123225</v>
       </c>
       <c r="G46" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0165947985726984</v>
+        <v>0.00877923124276454</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K46" t="n">
         <v>0.05496828752642706</v>
       </c>
       <c r="L46" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M46" t="n">
         <v>0.0549682875264271</v>
       </c>
       <c r="N46" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="47">
@@ -4980,7 +4980,7 @@
         <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D47" t="n">
         <v>250.0</v>
@@ -5007,7 +5007,7 @@
         <v>0.05496828752642706</v>
       </c>
       <c r="L47" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M47" t="n">
         <v>0.0549682875264271</v>
@@ -5068,7 +5068,7 @@
         <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D49" t="n">
         <v>93.0</v>
@@ -5112,7 +5112,7 @@
         <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D50" t="n">
         <v>250.0</v>
@@ -5156,7 +5156,7 @@
         <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D51" t="n">
         <v>250.0</v>
@@ -5326,13 +5326,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
         <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D55" t="e">
         <v>#NUM!</v>
@@ -5359,7 +5359,7 @@
         <v>0.0613107822410148</v>
       </c>
       <c r="L55" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M55" t="e">
         <v>#NUM!</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
         <v>80</v>
@@ -5403,7 +5403,7 @@
         <v>0.06765327695560254</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M56" t="e">
         <v>#NUM!</v>
@@ -5464,7 +5464,7 @@
         <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D58" t="e">
         <v>#NUM!</v>
@@ -5596,7 +5596,7 @@
         <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D61" t="e">
         <v>#NUM!</v>
@@ -5816,7 +5816,7 @@
         <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D66" t="e">
         <v>#NUM!</v>
@@ -5884,10 +5884,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K67" t="n">
-        <v>0.48583509513742074</v>
+        <v>0.493446088794926</v>
       </c>
       <c r="L67" t="n">
-        <v>0.005348461158847161</v>
+        <v>0.0172102199975923</v>
       </c>
       <c r="M67" t="e">
         <v>#NUM!</v>
@@ -5992,7 +5992,7 @@
         <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D70" t="e">
         <v>#NUM!</v>

--- a/output/LUAD_statistics_all.xlsx
+++ b/output/LUAD_statistics_all.xlsx
@@ -57,54 +57,54 @@
     <t>9</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>35</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
@@ -219,36 +219,36 @@
     <t>Amplification CDK4</t>
   </si>
   <si>
+    <t>Mutation EGFR</t>
+  </si>
+  <si>
+    <t>Mutation KRAS</t>
+  </si>
+  <si>
     <t>Pattern OR_KRAS</t>
   </si>
   <si>
+    <t>Pattern OR_CDK4_TP53</t>
+  </si>
+  <si>
+    <t>Mutation SMARCA4</t>
+  </si>
+  <si>
+    <t>Mutation TP53</t>
+  </si>
+  <si>
+    <t>Mutation ATM</t>
+  </si>
+  <si>
     <t>Pattern OR_CDKN2A</t>
   </si>
   <si>
-    <t>Pattern OR_CDK4_TP53</t>
-  </si>
-  <si>
-    <t>Mutation EGFR</t>
-  </si>
-  <si>
-    <t>Mutation KRAS</t>
+    <t>Mutation NF1</t>
   </si>
   <si>
     <t>Pattern OR_EGFR_SMARCA4</t>
   </si>
   <si>
-    <t>Mutation TP53</t>
-  </si>
-  <si>
-    <t>Mutation ATM</t>
-  </si>
-  <si>
-    <t>Mutation NF1</t>
-  </si>
-  <si>
-    <t>Mutation SMARCA4</t>
-  </si>
-  <si>
     <t>Mutation KEAP1</t>
   </si>
   <si>
@@ -261,34 +261,34 @@
     <t>Amplification MDM2</t>
   </si>
   <si>
+    <t>Amplification EGFR</t>
+  </si>
+  <si>
+    <t>Amplification KRAS</t>
+  </si>
+  <si>
+    <t>Mutation STK11</t>
+  </si>
+  <si>
+    <t>Mutation NFE2L2</t>
+  </si>
+  <si>
+    <t>Mutation RB1</t>
+  </si>
+  <si>
     <t>Amplification CCND1</t>
   </si>
   <si>
-    <t>Amplification EGFR</t>
-  </si>
-  <si>
-    <t>Mutation STK11</t>
-  </si>
-  <si>
-    <t>Amplification KRAS</t>
+    <t>Mutation CDKN2A</t>
+  </si>
+  <si>
+    <t>Mutation RET</t>
   </si>
   <si>
     <t>Deletion CDKN2A</t>
   </si>
   <si>
-    <t>Mutation RB1</t>
-  </si>
-  <si>
     <t>Amplification MET</t>
-  </si>
-  <si>
-    <t>Mutation CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation NFE2L2</t>
-  </si>
-  <si>
-    <t>Mutation RET</t>
   </si>
   <si>
     <t>Mutation ROS1</t>
@@ -599,10 +599,10 @@
         <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0551797040169133</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N2" t="n">
-        <v>6.68557644855893E-4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -613,13 +613,13 @@
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>158.0</v>
+        <v>65.0</v>
       </c>
       <c r="E3" t="n">
-        <v>46.0</v>
+        <v>28.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.0058336561716597</v>
@@ -628,22 +628,22 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00131454955057744</v>
+        <v>3.24651120035433E-13</v>
       </c>
       <c r="I3" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09725158562367865</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0972515856236787</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -657,13 +657,13 @@
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" t="n">
-        <v>103.0</v>
+        <v>141.0</v>
       </c>
       <c r="E4" t="n">
-        <v>19.0</v>
+        <v>34.0</v>
       </c>
       <c r="F4" t="n">
         <v>0.0059626167965088</v>
@@ -672,7 +672,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H4" t="n">
-        <v>8.46735787535546E-6</v>
+        <v>8.88220599278587E-4</v>
       </c>
       <c r="I4" t="n">
         <v>80.0</v>
@@ -681,13 +681,13 @@
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.040169133192389</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -701,13 +701,13 @@
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" t="n">
-        <v>265.0</v>
+        <v>158.0</v>
       </c>
       <c r="E5" t="n">
-        <v>28.0</v>
+        <v>84.0</v>
       </c>
       <c r="F5" t="n">
         <v>0.0059626167965088</v>
@@ -716,7 +716,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H5" t="n">
-        <v>1.77721953788421E-6</v>
+        <v>1.11208450607907E-5</v>
       </c>
       <c r="I5" t="n">
         <v>80.0</v>
@@ -725,13 +725,13 @@
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.17758985200845667</v>
       </c>
       <c r="L5" t="n">
         <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
@@ -742,16 +742,16 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" t="n">
-        <v>158.0</v>
+        <v>265.0</v>
       </c>
       <c r="E6" t="n">
-        <v>84.0</v>
+        <v>28.0</v>
       </c>
       <c r="F6" t="n">
         <v>0.0059626167965088</v>
@@ -760,25 +760,25 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H6" t="n">
-        <v>1.11208450607907E-5</v>
+        <v>1.77721953788421E-6</v>
       </c>
       <c r="I6" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.17758985200845667</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.177589852008457</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="7">
@@ -792,19 +792,19 @@
         <v>83</v>
       </c>
       <c r="D7" t="n">
-        <v>65.0</v>
+        <v>265.0</v>
       </c>
       <c r="E7" t="n">
-        <v>28.0</v>
+        <v>34.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G7" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H7" t="n">
-        <v>3.24651120035433E-13</v>
+        <v>8.27584277446678E-5</v>
       </c>
       <c r="I7" t="n">
         <v>60.0</v>
@@ -813,13 +813,13 @@
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -830,25 +830,25 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D8" t="n">
-        <v>141.0</v>
+        <v>158.0</v>
       </c>
       <c r="E8" t="n">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G8" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H8" t="n">
-        <v>8.88220599278587E-4</v>
+        <v>0.00131454955057744</v>
       </c>
       <c r="I8" t="n">
         <v>60.0</v>
@@ -857,13 +857,13 @@
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -874,25 +874,25 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" t="n">
-        <v>120.0</v>
+        <v>48.0</v>
       </c>
       <c r="E9" t="n">
-        <v>82.0</v>
+        <v>15.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G9" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H9" t="n">
-        <v>4.12608987825272E-4</v>
+        <v>0.00161509241969472</v>
       </c>
       <c r="I9" t="n">
         <v>60.0</v>
@@ -901,13 +901,13 @@
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1733615221987315</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.173361522198731</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -918,10 +918,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" t="n">
         <v>250.0</v>
@@ -954,7 +954,7 @@
         <v>0.06553911205074</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0</v>
+        <v>6.5420519111824E-18</v>
       </c>
     </row>
     <row r="11">
@@ -962,10 +962,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D11" t="n">
         <v>46.0</v>
@@ -1006,25 +1006,25 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" t="n">
         <v>103.0</v>
       </c>
       <c r="E12" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G12" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00167276266869532</v>
+        <v>8.46735787535546E-6</v>
       </c>
       <c r="I12" t="n">
         <v>40.0</v>
@@ -1033,13 +1033,13 @@
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -1080,7 +1080,7 @@
         <v>0.052854122621564484</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M13" t="n">
         <v>0.0528541226215645</v>
@@ -1094,10 +1094,10 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" t="n">
         <v>250.0</v>
@@ -1130,7 +1130,7 @@
         <v>0.0528541226215645</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="15">
@@ -1138,25 +1138,25 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" t="n">
-        <v>48.0</v>
+        <v>265.0</v>
       </c>
       <c r="E15" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G15" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00161509241969472</v>
+        <v>9.13202144083936E-5</v>
       </c>
       <c r="I15" t="n">
         <v>40.0</v>
@@ -1165,13 +1165,13 @@
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L15" t="n">
         <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
@@ -1182,40 +1182,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D16" t="n">
-        <v>93.0</v>
+        <v>120.0</v>
       </c>
       <c r="E16" t="n">
-        <v>84.0</v>
+        <v>82.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.200982679178368</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G16" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H16" t="n">
-        <v>3.59155834889592E-4</v>
+        <v>4.12608987825272E-4</v>
       </c>
       <c r="I16" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J16" t="n">
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.17758985200845667</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.177589852008457</v>
+        <v>0.173361522198731</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -1226,25 +1226,25 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" t="n">
-        <v>265.0</v>
+        <v>93.0</v>
       </c>
       <c r="E17" t="n">
-        <v>34.0</v>
+        <v>84.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.200982679178368</v>
       </c>
       <c r="G17" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H17" t="n">
-        <v>8.27584277446678E-5</v>
+        <v>3.59155834889592E-4</v>
       </c>
       <c r="I17" t="n">
         <v>20.0</v>
@@ -1253,13 +1253,13 @@
         <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.17758985200845667</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -1270,16 +1270,16 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
         <v>91</v>
       </c>
       <c r="D18" t="n">
-        <v>265.0</v>
+        <v>103.0</v>
       </c>
       <c r="E18" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="F18" t="n">
         <v>0.00396825396825397</v>
@@ -1288,7 +1288,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H18" t="n">
-        <v>9.13202144083936E-5</v>
+        <v>0.00167276266869532</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -1297,13 +1297,13 @@
         <v>100.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -1476,7 +1476,7 @@
         <v>0.12473572938689217</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M22" t="e">
         <v>#NUM!</v>
@@ -1564,7 +1564,7 @@
         <v>0.05919661733615222</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M24" t="e">
         <v>#NUM!</v>
@@ -1608,7 +1608,7 @@
         <v>0.06765327695560254</v>
       </c>
       <c r="L25" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>8.012344526598183E-18</v>
       </c>
       <c r="M25" t="e">
         <v>#NUM!</v>
@@ -1669,7 +1669,7 @@
         <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -1801,7 +1801,7 @@
         <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -1916,7 +1916,7 @@
         <v>0.06553911205073996</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0</v>
+        <v>6.542051911182396E-18</v>
       </c>
       <c r="M32" t="e">
         <v>#NUM!</v>
@@ -2048,7 +2048,7 @@
         <v>0.07822410147991543</v>
       </c>
       <c r="L35" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M35" t="e">
         <v>#NUM!</v>
@@ -2109,7 +2109,7 @@
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D37" t="e">
         <v>#NUM!</v>
@@ -2153,7 +2153,7 @@
         <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" t="e">
         <v>#NUM!</v>
@@ -2285,7 +2285,7 @@
         <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D41" t="e">
         <v>#NUM!</v>
@@ -2329,7 +2329,7 @@
         <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D42" t="e">
         <v>#NUM!</v>
@@ -2441,10 +2441,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K44" t="n">
-        <v>0.493446088794926</v>
+        <v>0.4970401691331924</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0172102199975923</v>
+        <v>0.02016661652415717</v>
       </c>
       <c r="M44" t="e">
         <v>#NUM!</v>
@@ -2505,7 +2505,7 @@
         <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D46" t="e">
         <v>#NUM!</v>
@@ -2593,7 +2593,7 @@
         <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D48" t="e">
         <v>#NUM!</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -3038,19 +3038,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>158.0</v>
+        <v>65.0</v>
       </c>
       <c r="E3" t="n">
-        <v>46.0</v>
+        <v>28.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.0058336561716597</v>
@@ -3059,42 +3059,42 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00131454955057744</v>
+        <v>3.24651120035433E-13</v>
       </c>
       <c r="I3" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09725158562367865</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0972515856236787</v>
+        <v>0.119450317124736</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>0.00557131370713245</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" t="n">
-        <v>103.0</v>
+        <v>141.0</v>
       </c>
       <c r="E4" t="n">
-        <v>19.0</v>
+        <v>34.0</v>
       </c>
       <c r="F4" t="n">
         <v>0.0059626167965088</v>
@@ -3103,7 +3103,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H4" t="n">
-        <v>8.46735787535546E-6</v>
+        <v>8.88220599278587E-4</v>
       </c>
       <c r="I4" t="n">
         <v>80.0</v>
@@ -3112,13 +3112,13 @@
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.040169133192389</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -3126,19 +3126,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" t="n">
-        <v>265.0</v>
+        <v>158.0</v>
       </c>
       <c r="E5" t="n">
-        <v>28.0</v>
+        <v>84.0</v>
       </c>
       <c r="F5" t="n">
         <v>0.0059626167965088</v>
@@ -3147,7 +3147,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H5" t="n">
-        <v>1.77721953788421E-6</v>
+        <v>1.11208450607907E-5</v>
       </c>
       <c r="I5" t="n">
         <v>80.0</v>
@@ -3156,13 +3156,13 @@
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.17758985200845667</v>
       </c>
       <c r="L5" t="n">
         <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
@@ -3170,19 +3170,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" t="n">
-        <v>158.0</v>
+        <v>265.0</v>
       </c>
       <c r="E6" t="n">
-        <v>84.0</v>
+        <v>28.0</v>
       </c>
       <c r="F6" t="n">
         <v>0.0059626167965088</v>
@@ -3191,22 +3191,22 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H6" t="n">
-        <v>1.11208450607907E-5</v>
+        <v>1.77721953788421E-6</v>
       </c>
       <c r="I6" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.17758985200845667</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.177589852008457</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -3223,19 +3223,19 @@
         <v>83</v>
       </c>
       <c r="D7" t="n">
-        <v>65.0</v>
+        <v>265.0</v>
       </c>
       <c r="E7" t="n">
-        <v>28.0</v>
+        <v>34.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G7" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H7" t="n">
-        <v>3.24651120035433E-13</v>
+        <v>8.27584277446678E-5</v>
       </c>
       <c r="I7" t="n">
         <v>60.0</v>
@@ -3244,42 +3244,42 @@
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.125581395348837</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00469579457334959</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D8" t="n">
-        <v>141.0</v>
+        <v>158.0</v>
       </c>
       <c r="E8" t="n">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G8" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H8" t="n">
-        <v>8.88220599278587E-4</v>
+        <v>0.00131454955057744</v>
       </c>
       <c r="I8" t="n">
         <v>60.0</v>
@@ -3288,13 +3288,13 @@
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -3302,28 +3302,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" t="n">
-        <v>120.0</v>
+        <v>48.0</v>
       </c>
       <c r="E9" t="n">
-        <v>82.0</v>
+        <v>15.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G9" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H9" t="n">
-        <v>4.12608987825272E-4</v>
+        <v>0.00161509241969472</v>
       </c>
       <c r="I9" t="n">
         <v>60.0</v>
@@ -3332,13 +3332,13 @@
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1733615221987315</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.173361522198731</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -3349,10 +3349,10 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" t="n">
         <v>250.0</v>
@@ -3393,10 +3393,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D11" t="n">
         <v>46.0</v>
@@ -3434,28 +3434,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" t="n">
         <v>103.0</v>
       </c>
       <c r="E12" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G12" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00167276266869532</v>
+        <v>8.46735787535546E-6</v>
       </c>
       <c r="I12" t="n">
         <v>40.0</v>
@@ -3464,13 +3464,13 @@
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -3511,13 +3511,13 @@
         <v>0.052854122621564484</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M13" t="n">
         <v>0.0528541226215645</v>
       </c>
       <c r="N13" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -3525,10 +3525,10 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" t="n">
         <v>250.0</v>
@@ -3561,33 +3561,33 @@
         <v>0.0528541226215645</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" t="n">
-        <v>48.0</v>
+        <v>265.0</v>
       </c>
       <c r="E15" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G15" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00161509241969472</v>
+        <v>9.13202144083936E-5</v>
       </c>
       <c r="I15" t="n">
         <v>40.0</v>
@@ -3596,13 +3596,13 @@
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L15" t="n">
         <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
@@ -3610,43 +3610,43 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D16" t="n">
-        <v>93.0</v>
+        <v>120.0</v>
       </c>
       <c r="E16" t="n">
-        <v>84.0</v>
+        <v>82.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.200982679178368</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G16" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H16" t="n">
-        <v>3.59155834889592E-4</v>
+        <v>4.12608987825272E-4</v>
       </c>
       <c r="I16" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J16" t="n">
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.17758985200845667</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.177589852008457</v>
+        <v>0.173361522198731</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -3654,28 +3654,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" t="n">
-        <v>265.0</v>
+        <v>93.0</v>
       </c>
       <c r="E17" t="n">
-        <v>34.0</v>
+        <v>84.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.200982679178368</v>
       </c>
       <c r="G17" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H17" t="n">
-        <v>8.27584277446678E-5</v>
+        <v>3.59155834889592E-4</v>
       </c>
       <c r="I17" t="n">
         <v>20.0</v>
@@ -3684,13 +3684,13 @@
         <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.17758985200845667</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -3698,13 +3698,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D18" t="n">
         <v>48.0</v>
@@ -3745,7 +3745,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
         <v>93</v>
@@ -3786,13 +3786,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" t="n">
         <v>266.0</v>
@@ -3825,18 +3825,18 @@
         <v>0.0591966173361522</v>
       </c>
       <c r="N20" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D21" t="n">
         <v>250.0</v>
@@ -3880,7 +3880,7 @@
         <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D22" t="n">
         <v>27.0</v>
@@ -3921,10 +3921,10 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D23" t="n">
         <v>250.0</v>
@@ -3962,43 +3962,43 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D24" t="n">
-        <v>93.0</v>
+        <v>103.0</v>
       </c>
       <c r="E24" t="n">
-        <v>59.0</v>
+        <v>15.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0204179464513697</v>
+        <v>0.00167276266869532</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.12473572938689217</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.124735729386892</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
@@ -4006,16 +4006,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
         <v>94</v>
       </c>
       <c r="D25" t="n">
-        <v>158.0</v>
+        <v>93.0</v>
       </c>
       <c r="E25" t="n">
         <v>59.0</v>
@@ -4024,10 +4024,10 @@
         <v>0.0059626167965088</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00334798701112857</v>
+        <v>0.0204179464513697</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -4039,39 +4039,39 @@
         <v>0.12473572938689217</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M25" t="n">
         <v>0.124735729386892</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0</v>
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" t="n">
-        <v>64.0</v>
+        <v>158.0</v>
       </c>
       <c r="E26" t="n">
-        <v>37.0</v>
+        <v>59.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G26" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00333892782400472</v>
+        <v>0.00334798701112857</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -4080,30 +4080,30 @@
         <v>0.0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.07822410147991543</v>
+        <v>0.12473572938689217</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0782241014799154</v>
+        <v>0.124735729386892</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0</v>
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
         <v>95</v>
       </c>
       <c r="D27" t="n">
-        <v>250.0</v>
+        <v>64.0</v>
       </c>
       <c r="E27" t="n">
         <v>37.0</v>
@@ -4112,10 +4112,10 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00793650793650794</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0641712118646901</v>
+        <v>0.00333892782400472</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -4138,28 +4138,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
         <v>95</v>
       </c>
-      <c r="C28" t="s">
-        <v>96</v>
-      </c>
       <c r="D28" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="E28" t="n">
         <v>37.0</v>
       </c>
-      <c r="E28" t="n">
-        <v>28.0</v>
-      </c>
       <c r="F28" t="n">
-        <v>0.0158730158730159</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.00793650793650794</v>
       </c>
       <c r="H28" t="n">
-        <v>0.015920859802431</v>
+        <v>0.0641712118646901</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
@@ -4168,42 +4168,42 @@
         <v>0.0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.07822410147991543</v>
       </c>
       <c r="L28" t="n">
         <v>0.0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0782241014799154</v>
       </c>
       <c r="N28" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
         <v>96</v>
       </c>
       <c r="D29" t="n">
-        <v>46.0</v>
+        <v>37.0</v>
       </c>
       <c r="E29" t="n">
         <v>28.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="G29" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0142728080658903</v>
+        <v>0.015920859802431</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
@@ -4215,7 +4215,7 @@
         <v>0.05919661733615222</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M29" t="n">
         <v>0.0591966173361522</v>
@@ -4226,28 +4226,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
         <v>96</v>
       </c>
       <c r="D30" t="n">
-        <v>35.0</v>
+        <v>46.0</v>
       </c>
       <c r="E30" t="n">
         <v>28.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0468463097466241</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G30" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0417860943528127</v>
+        <v>0.0142728080658903</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
@@ -4259,39 +4259,39 @@
         <v>0.05919661733615222</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M30" t="n">
         <v>0.0591966173361522</v>
       </c>
       <c r="N30" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" t="s">
         <v>96</v>
       </c>
-      <c r="C31" t="s">
-        <v>79</v>
-      </c>
       <c r="D31" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E31" t="n">
         <v>28.0</v>
       </c>
-      <c r="E31" t="n">
-        <v>25.0</v>
-      </c>
       <c r="F31" t="n">
-        <v>0.0277777777777778</v>
+        <v>0.0468463097466241</v>
       </c>
       <c r="G31" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00528885616238524</v>
+        <v>0.0417860943528127</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -4300,13 +4300,13 @@
         <v>0.0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N31" t="n">
         <v>0.0</v>
@@ -4314,28 +4314,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
         <v>79</v>
       </c>
       <c r="D32" t="n">
-        <v>31.0</v>
+        <v>28.0</v>
       </c>
       <c r="E32" t="n">
         <v>25.0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0158730158730159</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H32" t="n">
-        <v>0.00130554100709877</v>
+        <v>0.00528885616238524</v>
       </c>
       <c r="I32" t="n">
         <v>0.0</v>
@@ -4347,7 +4347,7 @@
         <v>0.052854122621564484</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M32" t="n">
         <v>0.0528541226215645</v>
@@ -4358,28 +4358,28 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D33" t="n">
-        <v>84.0</v>
+        <v>31.0</v>
       </c>
       <c r="E33" t="n">
-        <v>46.0</v>
+        <v>25.0</v>
       </c>
       <c r="F33" t="n">
         <v>0.0059626167965088</v>
       </c>
       <c r="G33" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H33" t="n">
-        <v>0.00153994324064719</v>
+        <v>0.00130554100709877</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -4388,13 +4388,13 @@
         <v>0.0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.09725158562367865</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0972515856236787</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N33" t="n">
         <v>0.0</v>
@@ -4402,28 +4402,28 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D34" t="n">
-        <v>31.0</v>
+        <v>84.0</v>
       </c>
       <c r="E34" t="n">
-        <v>25.0</v>
+        <v>46.0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0172268185197356</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H34" t="n">
-        <v>0.00352256830938948</v>
+        <v>0.00153994324064719</v>
       </c>
       <c r="I34" t="n">
         <v>0.0</v>
@@ -4432,13 +4432,13 @@
         <v>0.0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L34" t="n">
         <v>0.0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N34" t="n">
         <v>0.0</v>
@@ -4446,28 +4446,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D35" t="n">
-        <v>93.0</v>
+        <v>31.0</v>
       </c>
       <c r="E35" t="n">
-        <v>31.0</v>
+        <v>25.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0058336561716597</v>
+        <v>0.0172268185197356</v>
       </c>
       <c r="G35" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0572545435376393</v>
+        <v>0.00352256830938948</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
@@ -4476,13 +4476,13 @@
         <v>0.0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L35" t="n">
         <v>0.0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.06553911205074</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N35" t="n">
         <v>0.0</v>
@@ -4490,28 +4490,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="D36" t="n">
-        <v>250.0</v>
+        <v>93.0</v>
       </c>
       <c r="E36" t="n">
-        <v>64.0</v>
+        <v>31.0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0058336561716597</v>
       </c>
       <c r="G36" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0500405705476867</v>
+        <v>0.0572545435376393</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -4520,42 +4520,42 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.13530655391120508</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0</v>
+        <v>6.542051911182396E-18</v>
       </c>
       <c r="M36" t="n">
-        <v>0.135306553911205</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0</v>
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D37" t="n">
-        <v>37.0</v>
+        <v>250.0</v>
       </c>
       <c r="E37" t="n">
-        <v>27.0</v>
+        <v>64.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00798534817689006</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G37" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00573068158794917</v>
+        <v>0.0500405705476867</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -4564,13 +4564,13 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.05708245243128964</v>
+        <v>0.13530655391120508</v>
       </c>
       <c r="L37" t="n">
         <v>0.0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0570824524312896</v>
+        <v>0.135306553911205</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
@@ -4578,28 +4578,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
         <v>102</v>
       </c>
       <c r="D38" t="n">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
       <c r="E38" t="n">
         <v>27.0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00793650793650794</v>
+        <v>0.00798534817689006</v>
       </c>
       <c r="G38" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00496140462033587</v>
+        <v>0.00573068158794917</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
@@ -4617,33 +4617,33 @@
         <v>0.0570824524312896</v>
       </c>
       <c r="N38" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D39" t="n">
-        <v>59.0</v>
+        <v>41.0</v>
       </c>
       <c r="E39" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00793650793650794</v>
       </c>
       <c r="G39" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H39" t="n">
-        <v>0.00872783618701037</v>
+        <v>0.00496140462033587</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
@@ -4652,13 +4652,13 @@
         <v>0.0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.05708245243128964</v>
       </c>
       <c r="L39" t="n">
         <v>0.0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.06553911205074</v>
+        <v>0.0570824524312896</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
@@ -4666,16 +4666,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D40" t="n">
-        <v>78.0</v>
+        <v>59.0</v>
       </c>
       <c r="E40" t="n">
         <v>31.0</v>
@@ -4687,7 +4687,7 @@
         <v>0.00396825396825397</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0865916560787768</v>
+        <v>0.00872783618701037</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
@@ -4710,28 +4710,28 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D41" t="n">
-        <v>222.0</v>
+        <v>78.0</v>
       </c>
       <c r="E41" t="n">
-        <v>37.0</v>
+        <v>31.0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G41" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H41" t="n">
-        <v>0.00201437246540173</v>
+        <v>0.0865916560787768</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
@@ -4740,42 +4740,42 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.07822410147991543</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L41" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0782241014799154</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0</v>
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D42" t="n">
-        <v>46.0</v>
+        <v>222.0</v>
       </c>
       <c r="E42" t="n">
-        <v>23.0</v>
+        <v>37.0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0059626167965088</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="G42" t="n">
         <v>0.00396825396825397</v>
       </c>
       <c r="H42" t="n">
-        <v>0.145038385111565</v>
+        <v>0.00201437246540173</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
@@ -4784,30 +4784,30 @@
         <v>0.0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.07822410147991543</v>
       </c>
       <c r="L42" t="n">
         <v>0.0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.0782241014799154</v>
       </c>
       <c r="N42" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D43" t="n">
-        <v>93.0</v>
+        <v>46.0</v>
       </c>
       <c r="E43" t="n">
         <v>23.0</v>
@@ -4816,10 +4816,10 @@
         <v>0.0059626167965088</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0158730158730159</v>
+        <v>0.00396825396825397</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0914870429913643</v>
+        <v>0.145038385111565</v>
       </c>
       <c r="I43" t="n">
         <v>0.0</v>
@@ -4842,34 +4842,34 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D44" t="n">
-        <v>265.0</v>
+        <v>93.0</v>
       </c>
       <c r="E44" t="n">
         <v>23.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0059626167965088</v>
       </c>
       <c r="G44" t="n">
-        <v>0.00396825396825397</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H44" t="n">
-        <v>9.13202144083936E-5</v>
+        <v>0.0914870429913643</v>
       </c>
       <c r="I44" t="n">
         <v>0.0</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K44" t="n">
         <v>0.048625792811839326</v>
@@ -4925,7 +4925,7 @@
         <v>0.0549682875264271</v>
       </c>
       <c r="N45" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
@@ -4969,7 +4969,7 @@
         <v>0.0549682875264271</v>
       </c>
       <c r="N46" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -4977,7 +4977,7 @@
         <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
         <v>92</v>
@@ -5013,7 +5013,7 @@
         <v>0.0549682875264271</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="48">
@@ -5068,7 +5068,7 @@
         <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D49" t="n">
         <v>93.0</v>
@@ -5109,10 +5109,10 @@
         <v>133</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D50" t="n">
         <v>250.0</v>
@@ -5153,10 +5153,10 @@
         <v>134</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D51" t="n">
         <v>250.0</v>
@@ -5197,7 +5197,7 @@
         <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" t="s">
         <v>107</v>
@@ -5241,10 +5241,10 @@
         <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D53" t="n">
         <v>250.0</v>
@@ -5285,7 +5285,7 @@
         <v>137</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
         <v>117</v>
@@ -5326,7 +5326,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
         <v>80</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B56" t="s">
         <v>80</v>
@@ -5403,7 +5403,7 @@
         <v>0.06765327695560254</v>
       </c>
       <c r="L56" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>8.012344526598183E-18</v>
       </c>
       <c r="M56" t="e">
         <v>#NUM!</v>
@@ -5464,7 +5464,7 @@
         <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D58" t="e">
         <v>#NUM!</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B60" t="s">
         <v>80</v>
@@ -5590,13 +5590,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B61" t="s">
         <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D61" t="e">
         <v>#NUM!</v>
@@ -5684,7 +5684,7 @@
         <v>80</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D63" t="e">
         <v>#NUM!</v>
@@ -5816,7 +5816,7 @@
         <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D66" t="e">
         <v>#NUM!</v>
@@ -5884,10 +5884,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K67" t="n">
-        <v>0.493446088794926</v>
+        <v>0.4970401691331924</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0172102199975923</v>
+        <v>0.02016661652415717</v>
       </c>
       <c r="M67" t="e">
         <v>#NUM!</v>
@@ -5992,7 +5992,7 @@
         <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D70" t="e">
         <v>#NUM!</v>
